--- a/data/time_series/liability_return_data.xlsx
+++ b/data/time_series/liability_return_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D99F563-06CF-4C19-9D4D-600635A21E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF8379F-A0BD-4AEC-8E1B-C6993D4ACD48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBT" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
-    <t>Return</t>
-  </si>
-  <si>
     <t>Present Value</t>
   </si>
   <si>
     <t>Market Value</t>
+  </si>
+  <si>
+    <t>Liability</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -475,13 +475,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,6 +1625,1165 @@
   <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>40209</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.2666204927981539E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>40237</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-4.1449237575323927E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>40268</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-4.9958725626120248E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>40298</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.7980983824790442E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>40329</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-5.1602110308068827E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>40359</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.4197214965096228E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>40390</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.3886932218366571E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>40421</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7.0347982334712178E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>40451</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-1.2419415943430771E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>40482</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-4.2415989035364809E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>40512</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2.044835456294081E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-9.1520011763822628E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>40574</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-3.3799254708735897E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>40602</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.6015246994446569E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>40633</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-1.0978873643736399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>40663</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3.0047790356226619E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>40694</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2.5281294190491629E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>40724</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-2.729419296380009E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>40755</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5.7007690668396949E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>40786</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3.0977049119218059E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>40816</v>
+      </c>
+      <c r="B22" s="4">
+        <v>9.7585475826000204E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>40847</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2.5634819569417822E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>40877</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6.5941746619413433E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>40908</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5.5532723974467617E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>40939</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-5.2952797822263253E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>40968</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6.4042184633603672E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>40999</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-3.612144343244772E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>41029</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2.6366034829139681E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>41060</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4.1640471672521613E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>41090</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4.4441827210472067E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>41121</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8.2131570276686924E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>41152</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-1.544772604891609E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>41182</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-1.6830063258128299E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>41213</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2.454977602891795E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>41243</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-1.1766626232388109E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>41274</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-2.286214110957718E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>41305</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-4.1163604010170933E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>41333</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1.1818114707687901E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>41364</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-7.5152343229284444E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41394</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5.1507847146707197E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41425</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-7.2223908750874588E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>41455</v>
+      </c>
+      <c r="B43" s="4">
+        <v>-4.8898117064517181E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2.756244959296605E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>41517</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-2.624342551686643E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B46" s="4">
+        <v>-6.8612108198750077E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2.3091254123550842E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>41608</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-1.50128314176412E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2.7627771864824352E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B50" s="4">
+        <v>5.2970349073057088E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2.0861136902184049E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1.2136995546448979E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2.34685493817679E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2.4502680744247659E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1.3741432070202291E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>41851</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4.8249778632902807E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>41882</v>
+      </c>
+      <c r="B57" s="4">
+        <v>4.5091363704766962E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B58" s="4">
+        <v>-3.3868436761072977E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2.759072796034423E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>41973</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2.3753607105202908E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2.8838481950426379E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>42035</v>
+      </c>
+      <c r="B62" s="4">
+        <v>9.767711766017273E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>42063</v>
+      </c>
+      <c r="B63" s="4">
+        <v>-5.0038919207248678E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B64" s="4">
+        <v>5.2852194074806116E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B65" s="4">
+        <v>-3.4739770000000003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>42155</v>
+      </c>
+      <c r="B66" s="4">
+        <v>-3.2112750000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B67" s="4">
+        <v>-4.8169129999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>42216</v>
+      </c>
+      <c r="B68" s="4">
+        <v>2.8694399999999998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>42247</v>
+      </c>
+      <c r="B69" s="4">
+        <v>-1.0225359999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1.3849500000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>42308</v>
+      </c>
+      <c r="B71" s="4">
+        <v>6.5171500000000002E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1.64408E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B73" s="4">
+        <v>-5.0960999999999997E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>42400</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1.265693E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B75" s="4">
+        <v>3.0467600000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4.6585889999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>42490</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2.1300980000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>42521</v>
+      </c>
+      <c r="B78" s="4">
+        <v>-2.3855399999999998E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B79" s="4">
+        <v>5.2500099999999987E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>42582</v>
+      </c>
+      <c r="B80" s="4">
+        <v>3.1926160000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B81" s="4">
+        <v>3.67528E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B82" s="4">
+        <v>-1.88007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>42674</v>
+      </c>
+      <c r="B83" s="4">
+        <v>-3.562017E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>42704</v>
+      </c>
+      <c r="B84" s="4">
+        <v>-6.4614489999999997E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B85" s="4">
+        <v>4.5279999999999999E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B86" s="4">
+        <v>-2.9921E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B87" s="4">
+        <v>2.644237E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B88" s="4">
+        <v>-1.178017E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>42855</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1.8997839999999998E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2.6387529999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1.235529E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B92" s="4">
+        <v>6.7941499999999997E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2.0651679999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B94" s="4">
+        <v>-8.3856199999999999E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1.1934129999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B96" s="4">
+        <v>4.3490999999999998E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B97" s="4">
+        <v>3.7690330000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B98" s="4">
+        <v>-3.075493E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B99" s="4">
+        <v>-3.8836710000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1.2936960000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B101" s="4">
+        <v>-1.8944240000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1.4005790000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B103" s="4">
+        <v>-1.807843E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1.1094730000000001E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B105" s="4">
+        <v>9.4574199999999994E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B106" s="4">
+        <v>-1.6640760000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B107" s="4">
+        <v>-4.5223649999999997E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3.9699999999999996E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B109" s="4">
+        <v>4.6290680000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B110" s="4">
+        <v>3.1879560000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B111" s="4">
+        <v>-5.5635399999999996E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B112" s="4">
+        <v>5.8050240000000003E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B113" s="4">
+        <v>-1.2088639999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B114" s="4">
+        <v>4.7203179999999997E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B115" s="4">
+        <v>3.8658730000000002E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1.7325839999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B117" s="4">
+        <v>9.6045390000000008E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B118" s="4">
+        <v>-2.4733040000000001E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B119" s="4">
+        <v>2.09589E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>43799</v>
+      </c>
+      <c r="B120" s="4">
+        <v>3.6247800000000002E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B121" s="4">
+        <v>-1.594771E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B122" s="4">
+        <v>6.8359719999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B123" s="4">
+        <v>3.5212470000000003E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B124" s="4">
+        <v>-7.0112189999999991E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B125" s="4">
+        <v>7.178996E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B126" s="4">
+        <v>5.8018000000000002E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1.913084E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B128" s="4">
+        <v>9.0711779999999992E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B129" s="4">
+        <v>-7.0550879999999996E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B130" s="4">
+        <v>4.1871900000000004E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B131" s="4">
+        <v>-2.4849179999999998E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B132" s="4">
+        <v>6.3695409999999994E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B133" s="4">
+        <v>-2.18468E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B134" s="4">
+        <v>-4.2639539999999997E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B135" s="4">
+        <v>-5.0049979999999987E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B136" s="4">
+        <v>-4.1898070000000003E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B137" s="4">
+        <v>3.0170860000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B138" s="4">
+        <v>5.0441599999999998E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B139" s="4">
+        <v>5.3178099999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B140" s="4">
+        <v>-7.5687300000000001E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B141" s="4">
+        <v>3.0141729999999999E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B142" s="4">
+        <v>-2.2809140000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34693692-6C77-4BB4-A99D-61623299D4F5}">
+  <dimension ref="A1:D142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1637,1172 +2796,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>40209</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1.2666204927981539E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>40237</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-4.1449237575323927E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>40268</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-4.9958725626120248E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>40298</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4.7980983824790442E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>40329</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-5.1602110308068827E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>40359</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6.4197214965096228E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>40390</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.3886932218366571E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>40421</v>
-      </c>
-      <c r="B9" s="4">
-        <v>7.0347982334712178E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>40451</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-1.2419415943430771E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>40482</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-4.2415989035364809E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>40512</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2.044835456294081E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>40543</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-9.1520011763822628E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>40574</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-3.3799254708735897E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>40602</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2.6015246994446569E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>40633</v>
-      </c>
-      <c r="B16" s="4">
-        <v>-1.0978873643736399E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>40663</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3.0047790356226619E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>40694</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2.5281294190491629E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>40724</v>
-      </c>
-      <c r="B19" s="4">
-        <v>-2.729419296380009E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>40755</v>
-      </c>
-      <c r="B20" s="4">
-        <v>5.7007690668396949E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>40786</v>
-      </c>
-      <c r="B21" s="4">
-        <v>3.0977049119218059E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>40816</v>
-      </c>
-      <c r="B22" s="4">
-        <v>9.7585475826000204E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>40847</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2.5634819569417822E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>40877</v>
-      </c>
-      <c r="B24" s="4">
-        <v>6.5941746619413433E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>40908</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5.5532723974467617E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>40939</v>
-      </c>
-      <c r="B26" s="4">
-        <v>-5.2952797822263253E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>40968</v>
-      </c>
-      <c r="B27" s="4">
-        <v>6.4042184633603672E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>40999</v>
-      </c>
-      <c r="B28" s="4">
-        <v>-3.612144343244772E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>41029</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2.6366034829139681E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>41060</v>
-      </c>
-      <c r="B30" s="4">
-        <v>4.1640471672521613E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>41090</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4.4441827210472067E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>41121</v>
-      </c>
-      <c r="B32" s="4">
-        <v>8.2131570276686924E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>41152</v>
-      </c>
-      <c r="B33" s="4">
-        <v>-1.544772604891609E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>41182</v>
-      </c>
-      <c r="B34" s="4">
-        <v>-1.6830063258128299E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>41213</v>
-      </c>
-      <c r="B35" s="4">
-        <v>2.454977602891795E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>41243</v>
-      </c>
-      <c r="B36" s="4">
-        <v>-1.1766626232388109E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>41274</v>
-      </c>
-      <c r="B37" s="4">
-        <v>-2.286214110957718E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>41305</v>
-      </c>
-      <c r="B38" s="4">
-        <v>-4.1163604010170933E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>41333</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1.1818114707687901E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>41364</v>
-      </c>
-      <c r="B40" s="4">
-        <v>-7.5152343229284444E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>41394</v>
-      </c>
-      <c r="B41" s="4">
-        <v>5.1507847146707197E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41425</v>
-      </c>
-      <c r="B42" s="4">
-        <v>-7.2223908750874588E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>41455</v>
-      </c>
-      <c r="B43" s="4">
-        <v>-4.8898117064517181E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>41486</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2.756244959296605E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>41517</v>
-      </c>
-      <c r="B45" s="4">
-        <v>-2.624342551686643E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>41547</v>
-      </c>
-      <c r="B46" s="4">
-        <v>-6.8612108198750077E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>41578</v>
-      </c>
-      <c r="B47" s="4">
-        <v>2.3091254123550842E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>41608</v>
-      </c>
-      <c r="B48" s="4">
-        <v>-1.50128314176412E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>41639</v>
-      </c>
-      <c r="B49" s="4">
-        <v>2.7627771864824352E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>41670</v>
-      </c>
-      <c r="B50" s="4">
-        <v>5.2970349073057088E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>41698</v>
-      </c>
-      <c r="B51" s="4">
-        <v>2.0861136902184049E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>41729</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1.2136995546448979E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>41759</v>
-      </c>
-      <c r="B53" s="4">
-        <v>2.34685493817679E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>41790</v>
-      </c>
-      <c r="B54" s="4">
-        <v>2.4502680744247659E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>41820</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1.3741432070202291E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>41851</v>
-      </c>
-      <c r="B56" s="4">
-        <v>4.8249778632902807E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>41882</v>
-      </c>
-      <c r="B57" s="4">
-        <v>4.5091363704766962E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>41912</v>
-      </c>
-      <c r="B58" s="4">
-        <v>-3.3868436761072977E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>41943</v>
-      </c>
-      <c r="B59" s="4">
-        <v>2.759072796034423E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>41973</v>
-      </c>
-      <c r="B60" s="4">
-        <v>2.3753607105202908E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>42004</v>
-      </c>
-      <c r="B61" s="4">
-        <v>2.8838481950426379E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>42035</v>
-      </c>
-      <c r="B62" s="4">
-        <v>9.767711766017273E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>42063</v>
-      </c>
-      <c r="B63" s="4">
-        <v>-5.0038919207248678E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>42094</v>
-      </c>
-      <c r="B64" s="4">
-        <v>5.2852194074806116E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>42124</v>
-      </c>
-      <c r="B65" s="4">
-        <v>-3.4739770000000003E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>42155</v>
-      </c>
-      <c r="B66" s="4">
-        <v>-3.2112750000000002E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>42185</v>
-      </c>
-      <c r="B67" s="4">
-        <v>-4.8169129999999998E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>42216</v>
-      </c>
-      <c r="B68" s="4">
-        <v>2.8694399999999998E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>42247</v>
-      </c>
-      <c r="B69" s="4">
-        <v>-1.0225359999999999E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>42277</v>
-      </c>
-      <c r="B70" s="4">
-        <v>1.3849500000000001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>42308</v>
-      </c>
-      <c r="B71" s="4">
-        <v>6.5171500000000002E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>42338</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1.64408E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>42369</v>
-      </c>
-      <c r="B73" s="4">
-        <v>-5.0960999999999997E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>42400</v>
-      </c>
-      <c r="B74" s="4">
-        <v>1.265693E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>42429</v>
-      </c>
-      <c r="B75" s="4">
-        <v>3.0467600000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B76" s="4">
-        <v>4.6585889999999998E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>42490</v>
-      </c>
-      <c r="B77" s="4">
-        <v>2.1300980000000001E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>42521</v>
-      </c>
-      <c r="B78" s="4">
-        <v>-2.3855399999999998E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>42551</v>
-      </c>
-      <c r="B79" s="4">
-        <v>5.2500099999999987E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>42582</v>
-      </c>
-      <c r="B80" s="4">
-        <v>3.1926160000000002E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>42613</v>
-      </c>
-      <c r="B81" s="4">
-        <v>3.67528E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>42643</v>
-      </c>
-      <c r="B82" s="4">
-        <v>-1.88007E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>42674</v>
-      </c>
-      <c r="B83" s="4">
-        <v>-3.562017E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>42704</v>
-      </c>
-      <c r="B84" s="4">
-        <v>-6.4614489999999997E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>42735</v>
-      </c>
-      <c r="B85" s="4">
-        <v>4.5279999999999999E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>42766</v>
-      </c>
-      <c r="B86" s="4">
-        <v>-2.9921E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>42794</v>
-      </c>
-      <c r="B87" s="4">
-        <v>2.644237E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>42825</v>
-      </c>
-      <c r="B88" s="4">
-        <v>-1.178017E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>42855</v>
-      </c>
-      <c r="B89" s="4">
-        <v>1.8997839999999998E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>42886</v>
-      </c>
-      <c r="B90" s="4">
-        <v>2.6387529999999999E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>42916</v>
-      </c>
-      <c r="B91" s="4">
-        <v>1.235529E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>42947</v>
-      </c>
-      <c r="B92" s="4">
-        <v>6.7941499999999997E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>42978</v>
-      </c>
-      <c r="B93" s="4">
-        <v>2.0651679999999999E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>43008</v>
-      </c>
-      <c r="B94" s="4">
-        <v>-8.3856199999999999E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>43039</v>
-      </c>
-      <c r="B95" s="4">
-        <v>1.1934129999999999E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>43069</v>
-      </c>
-      <c r="B96" s="4">
-        <v>4.3490999999999998E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>43100</v>
-      </c>
-      <c r="B97" s="4">
-        <v>3.7690330000000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>43131</v>
-      </c>
-      <c r="B98" s="4">
-        <v>-3.075493E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>43159</v>
-      </c>
-      <c r="B99" s="4">
-        <v>-3.8836710000000003E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>43190</v>
-      </c>
-      <c r="B100" s="4">
-        <v>1.2936960000000001E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>43220</v>
-      </c>
-      <c r="B101" s="4">
-        <v>-1.8944240000000001E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>43251</v>
-      </c>
-      <c r="B102" s="4">
-        <v>1.4005790000000001E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>43281</v>
-      </c>
-      <c r="B103" s="4">
-        <v>-1.807843E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>43312</v>
-      </c>
-      <c r="B104" s="4">
-        <v>1.1094730000000001E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>43343</v>
-      </c>
-      <c r="B105" s="4">
-        <v>9.4574199999999994E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>43373</v>
-      </c>
-      <c r="B106" s="4">
-        <v>-1.6640760000000001E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>43404</v>
-      </c>
-      <c r="B107" s="4">
-        <v>-4.5223649999999997E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>43434</v>
-      </c>
-      <c r="B108" s="4">
-        <v>3.9699999999999996E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>43465</v>
-      </c>
-      <c r="B109" s="4">
-        <v>4.6290680000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>43496</v>
-      </c>
-      <c r="B110" s="4">
-        <v>3.1879560000000001E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>43524</v>
-      </c>
-      <c r="B111" s="4">
-        <v>-5.5635399999999996E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>43555</v>
-      </c>
-      <c r="B112" s="4">
-        <v>5.8050240000000003E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>43585</v>
-      </c>
-      <c r="B113" s="4">
-        <v>-1.2088639999999999E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>43616</v>
-      </c>
-      <c r="B114" s="4">
-        <v>4.7203179999999997E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>43646</v>
-      </c>
-      <c r="B115" s="4">
-        <v>3.8658730000000002E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>43677</v>
-      </c>
-      <c r="B116" s="4">
-        <v>1.7325839999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>43708</v>
-      </c>
-      <c r="B117" s="4">
-        <v>9.6045390000000008E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>43738</v>
-      </c>
-      <c r="B118" s="4">
-        <v>-2.4733040000000001E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>43769</v>
-      </c>
-      <c r="B119" s="4">
-        <v>2.09589E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B120" s="4">
-        <v>3.6247800000000002E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B121" s="4">
-        <v>-1.594771E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B122" s="4">
-        <v>6.8359719999999999E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>43890</v>
-      </c>
-      <c r="B123" s="4">
-        <v>3.5212470000000003E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B124" s="4">
-        <v>-7.0112189999999991E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B125" s="4">
-        <v>7.178996E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>43982</v>
-      </c>
-      <c r="B126" s="4">
-        <v>5.8018000000000002E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>44012</v>
-      </c>
-      <c r="B127" s="4">
-        <v>1.913084E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>44043</v>
-      </c>
-      <c r="B128" s="4">
-        <v>9.0711779999999992E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>44074</v>
-      </c>
-      <c r="B129" s="4">
-        <v>-7.0550879999999996E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>44104</v>
-      </c>
-      <c r="B130" s="4">
-        <v>4.1871900000000004E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>44135</v>
-      </c>
-      <c r="B131" s="4">
-        <v>-2.4849179999999998E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B132" s="4">
-        <v>6.3695409999999994E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B133" s="4">
-        <v>-2.18468E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B134" s="4">
-        <v>-4.2639539999999997E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>44255</v>
-      </c>
-      <c r="B135" s="4">
-        <v>-5.0049979999999987E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>44286</v>
-      </c>
-      <c r="B136" s="4">
-        <v>-4.1898070000000003E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>44316</v>
-      </c>
-      <c r="B137" s="4">
-        <v>3.0170860000000001E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>44347</v>
-      </c>
-      <c r="B138" s="4">
-        <v>5.0441599999999998E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>44377</v>
-      </c>
-      <c r="B139" s="4">
-        <v>5.3178099999999999E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>44408</v>
-      </c>
-      <c r="B140" s="4">
-        <v>-7.5687300000000001E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>44439</v>
-      </c>
-      <c r="B141" s="4">
-        <v>3.0141729999999999E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>44469</v>
-      </c>
-      <c r="B142" s="4">
-        <v>-2.2809140000000002E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34693692-6C77-4BB4-A99D-61623299D4F5}">
-  <dimension ref="A1:D142"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/time_series/liability_return_data.xlsx
+++ b/data/time_series/liability_return_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54305F7-F698-4C71-A311-9C6E345CEA85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E079688-75FB-4ECB-8F90-75FACCCE549F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34995" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBT" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>Present Value</t>
   </si>
   <si>
-    <t>Market Value</t>
-  </si>
-  <si>
     <t>Liability</t>
-  </si>
-  <si>
-    <t>Present Values</t>
   </si>
   <si>
     <t>Date</t>
@@ -56,7 +50,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -134,7 +128,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +471,7 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,35 +479,28 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
       <c r="C2" s="6">
-        <v>9441977545.4913635</v>
-      </c>
-      <c r="D2" s="6">
-        <v>830117734.39999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9293365646.8367386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
@@ -521,13 +508,10 @@
         <v>9.4286571680741726E-3</v>
       </c>
       <c r="C3" s="6">
-        <v>9531002714.7564564</v>
-      </c>
-      <c r="D3" s="6">
-        <v>932517206.41999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9420454828.9245815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
@@ -535,13 +519,10 @@
         <v>-7.2156255351145671E-3</v>
       </c>
       <c r="C4" s="6">
-        <v>9462230568.1926136</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1064104134.0700001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9311044946.8880463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
@@ -549,13 +530,10 @@
         <v>-8.8764822865841086E-3</v>
       </c>
       <c r="C5" s="6">
-        <v>9378239246.1624775</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1475141834.8499999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9275239152.7531109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
@@ -563,13 +541,10 @@
         <v>3.6774377970874017E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>9723118160.9021416</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1622528988.0899999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9615905327.9343948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
@@ -577,13 +552,10 @@
         <v>-4.9521925123229282E-3</v>
       </c>
       <c r="C7" s="6">
-        <v>9674967407.9492912</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1547543516.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9460503505.5904064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
@@ -591,13 +563,10 @@
         <v>5.1272105999464301E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>10171023362.43103</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1525381389.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9931553114.994381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
@@ -605,13 +574,10 @@
         <v>1.063887559584842E-2</v>
       </c>
       <c r="C9" s="6">
-        <v>10279231614.666401</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1706992377.8800001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10090821836.865879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
@@ -619,13 +585,10 @@
         <v>5.75074062083889E-2</v>
       </c>
       <c r="C10" s="6">
-        <v>10870363562.64113</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1703519080.0799999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10607916372.40472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
@@ -633,13 +596,10 @@
         <v>-1.388598071628111E-2</v>
       </c>
       <c r="C11" s="6">
-        <v>10719417903.831341</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1774147463.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10508311438.8929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
@@ -647,13 +607,10 @@
         <v>-3.7915813974849777E-2</v>
       </c>
       <c r="C12" s="6">
-        <v>10312982448.67099</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1900647341.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10138724516.074289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
@@ -661,13 +618,10 @@
         <v>-6.5606212129246666E-3</v>
       </c>
       <c r="C13" s="6">
-        <v>10245322877.24972</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1880986063.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10052510181.596701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
@@ -675,13 +629,10 @@
         <v>-1.6388385726343709E-2</v>
       </c>
       <c r="C14" s="6">
-        <v>10077418574.046419</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1928778379.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9960918444.3616543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
@@ -689,13 +640,10 @@
         <v>-3.110373411559697E-2</v>
       </c>
       <c r="C15" s="6">
-        <v>9763973226.1477013</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3118038032.5700002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9652171950.3026333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
@@ -703,13 +651,10 @@
         <v>1.6933621468535609E-2</v>
       </c>
       <c r="C16" s="6">
-        <v>9929312652.7882023</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3181037518.5100002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9847783443.1524372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
@@ -717,13 +662,10 @@
         <v>-1.3816784421311399E-2</v>
       </c>
       <c r="C17" s="6">
-        <v>9792121480.4128284</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3181383242.4699998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9707624208.3165665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
@@ -731,13 +673,10 @@
         <v>2.3005840440923461E-2</v>
       </c>
       <c r="C18" s="6">
-        <v>10017397464.76935</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3268994098.8600001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9948523053.8479919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
@@ -745,13 +684,10 @@
         <v>1.85198215086213E-2</v>
       </c>
       <c r="C19" s="6">
-        <v>10202917877.797791</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3281525082.0100002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10110023606.734079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
@@ -759,13 +695,10 @@
         <v>-2.788495512599876E-2</v>
       </c>
       <c r="C20" s="6">
-        <v>9918409970.6211491</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3219718796.8299999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9835799069.219017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
@@ -773,13 +706,10 @@
         <v>4.6313501109545907E-2</v>
       </c>
       <c r="C21" s="6">
-        <v>10377766261.80044</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3245901192.1500001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10194706458.25493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
@@ -787,13 +717,10 @@
         <v>2.3185904213899992E-2</v>
       </c>
       <c r="C22" s="6">
-        <v>10618384156.300791</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3216438061.7600002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10353934512.4286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
@@ -801,13 +728,10 @@
         <v>7.3389288493279858E-2</v>
       </c>
       <c r="C23" s="6">
-        <v>11397659814.480021</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3211645130.6300001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10906217671.75108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
@@ -815,13 +739,10 @@
         <v>-4.4520451793172988E-4</v>
       </c>
       <c r="C24" s="6">
-        <v>11392585524.836769</v>
-      </c>
-      <c r="D24" s="6">
-        <v>3317215603.4000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10969986977.603809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
@@ -829,13 +750,10 @@
         <v>6.0605403993641005E-4</v>
       </c>
       <c r="C25" s="6">
-        <v>11399490047.31942</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3279790855.1700001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11020432776.298161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
@@ -843,13 +761,10 @@
         <v>4.5574510142390778E-2</v>
       </c>
       <c r="C26" s="6">
-        <v>11919016222.09906</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3308515656.8299999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11506101723.96011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
@@ -857,13 +772,10 @@
         <v>-4.0741661074542579E-3</v>
       </c>
       <c r="C27" s="6">
-        <v>11870456170.172791</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3390714253.3600001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11482483533.446501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
@@ -871,13 +783,10 @@
         <v>1.946508633915212E-3</v>
       </c>
       <c r="C28" s="6">
-        <v>11893562115.59654</v>
-      </c>
-      <c r="D28" s="6">
-        <v>3441357193.0100002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11532940749.62516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
@@ -885,13 +794,10 @@
         <v>-3.5159371905756583E-2</v>
       </c>
       <c r="C29" s="6">
-        <v>11475391941.89006</v>
-      </c>
-      <c r="D29" s="6">
-        <v>3594273253.8800001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11211417826.473181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
@@ -899,13 +805,10 @@
         <v>2.1345957829076889E-2</v>
       </c>
       <c r="C30" s="6">
-        <v>11720345174.353781</v>
-      </c>
-      <c r="D30" s="6">
-        <v>3620819218.9099998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11434124715.02705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
@@ -913,13 +816,10 @@
         <v>3.1699426011682297E-2</v>
       </c>
       <c r="C31" s="6">
-        <v>12091873389.039591</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3584994009.6500001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11758163872.376841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
@@ -927,13 +827,10 @@
         <v>3.4532416426389823E-2</v>
       </c>
       <c r="C32" s="6">
-        <v>12509434996.28508</v>
-      </c>
-      <c r="D32" s="6">
-        <v>3803025610.4400001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12234973733.53529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
@@ -941,13 +838,10 @@
         <v>6.6889275748482024E-2</v>
       </c>
       <c r="C33" s="6">
-        <v>13346182043.209311</v>
-      </c>
-      <c r="D33" s="6">
-        <v>3877728751.3899999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13010562846.039459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
@@ -955,13 +849,10 @@
         <v>-1.486782569019607E-2</v>
       </c>
       <c r="C34" s="6">
-        <v>13147753334.96125</v>
-      </c>
-      <c r="D34" s="6">
-        <v>3892524075.6999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12883487007.084351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
@@ -969,13 +860,10 @@
         <v>-1.7084523102676719E-2</v>
       </c>
       <c r="C35" s="6">
-        <v>12923130239.361811</v>
-      </c>
-      <c r="D35" s="6">
-        <v>3915294252.8000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12711968654.858271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
@@ -983,13 +871,10 @@
         <v>1.8689407512701539E-2</v>
       </c>
       <c r="C36" s="6">
-        <v>13164655886.744961</v>
-      </c>
-      <c r="D36" s="6">
-        <v>3910430761.8499999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12964410271.17284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
@@ -997,13 +882,10 @@
         <v>-1.2780823137196969E-2</v>
       </c>
       <c r="C37" s="6">
-        <v>12996400748.19441</v>
-      </c>
-      <c r="D37" s="6">
-        <v>3929018216.4000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12804840624.960239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
@@ -1011,13 +893,10 @@
         <v>-2.2402671881801561E-2</v>
       </c>
       <c r="C38" s="6">
-        <v>12705246646.588209</v>
-      </c>
-      <c r="D38" s="6">
-        <v>3949731061.5500002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12540766055.502359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
@@ -1025,13 +904,10 @@
         <v>-4.0068416700294478E-2</v>
       </c>
       <c r="C39" s="6">
-        <v>12196167529.672701</v>
-      </c>
-      <c r="D39" s="6">
-        <v>3991599105.71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12045479997.69746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
@@ -1039,13 +915,10 @@
         <v>7.6953683361382641E-3</v>
       </c>
       <c r="C40" s="6">
-        <v>12290021531.102779</v>
-      </c>
-      <c r="D40" s="6">
-        <v>4007467353.7800002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12151737125.19278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
@@ -1053,13 +926,10 @@
         <v>-9.3024781280198754E-3</v>
       </c>
       <c r="C41" s="6">
-        <v>12175693874.6168</v>
-      </c>
-      <c r="D41" s="6">
-        <v>4055824611.3000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12028359744.42881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
@@ -1067,13 +937,10 @@
         <v>4.0841940250339707E-2</v>
       </c>
       <c r="C42" s="6">
-        <v>12672972836.350321</v>
-      </c>
-      <c r="D42" s="6">
-        <v>4145409199.46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12508658037.348141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
@@ -1081,13 +948,10 @@
         <v>-6.7312926300333253E-2</v>
       </c>
       <c r="C43" s="6">
-        <v>11819917949.810949</v>
-      </c>
-      <c r="D43" s="6">
-        <v>4064569702.6300001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11691930644.967649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
@@ -1095,13 +959,10 @@
         <v>-4.7699855007173893E-2</v>
       </c>
       <c r="C44" s="6">
-        <v>11256109577.408279</v>
-      </c>
-      <c r="D44" s="6">
-        <v>3978796970.0900002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11114406016.062441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
@@ -1109,13 +970,10 @@
         <v>-1.491390881913857E-3</v>
       </c>
       <c r="C45" s="6">
-        <v>11239322318.21871</v>
-      </c>
-      <c r="D45" s="6">
-        <v>4023056820.8600001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11132588931.970751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
@@ -1123,13 +981,10 @@
         <v>-7.4205729054119818E-3</v>
       </c>
       <c r="C46" s="6">
-        <v>11155920107.548941</v>
-      </c>
-      <c r="D46" s="6">
-        <v>3966340296.0999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11071869362.580021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
@@ -1137,13 +992,10 @@
         <v>-7.000848442292873E-3</v>
       </c>
       <c r="C47" s="6">
-        <v>11077819201.641661</v>
-      </c>
-      <c r="D47" s="6">
-        <v>4033439753.48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11003518777.6099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
@@ -1151,13 +1003,10 @@
         <v>1.7039137302869541E-2</v>
       </c>
       <c r="C48" s="6">
-        <v>11266575684.0348</v>
-      </c>
-      <c r="D48" s="6">
-        <v>4110020215.5500002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11215133766.93339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
@@ -1165,13 +1014,10 @@
         <v>-1.7278951268306589E-2</v>
       </c>
       <c r="C49" s="6">
-        <v>11071901071.82967</v>
-      </c>
-      <c r="D49" s="6">
-        <v>4104202981.7199998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11027801510.34981</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
@@ -1179,13 +1025,10 @@
         <v>-5.3023401509416654E-3</v>
       </c>
       <c r="C50" s="6">
-        <v>11013194086.229259</v>
-      </c>
-      <c r="D50" s="6">
-        <v>4121232839.29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10953360887.26638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
@@ -1193,13 +1036,10 @@
         <v>4.1796921964538207E-2</v>
       </c>
       <c r="C51" s="6">
-        <v>11473511700.0317</v>
-      </c>
-      <c r="D51" s="6">
-        <v>4116223144.4400001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11431276088.77981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
@@ -1207,13 +1047,10 @@
         <v>1.432744673505559E-2</v>
       </c>
       <c r="C52" s="6">
-        <v>11637897827.777941</v>
-      </c>
-      <c r="D52" s="6">
-        <v>4197240949.3600001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11597159700.08672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
@@ -1221,13 +1058,10 @@
         <v>5.6737357828255952E-3</v>
       </c>
       <c r="C53" s="6">
-        <v>11703928185.12027</v>
-      </c>
-      <c r="D53" s="6">
-        <v>4215464347.8699999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11667546845.67955</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
@@ -1235,13 +1069,10 @@
         <v>1.6710305188317731E-2</v>
       </c>
       <c r="C54" s="6">
-        <v>11899504396.995781</v>
-      </c>
-      <c r="D54" s="6">
-        <v>4212492467.73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11857481731.35284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
@@ -1249,13 +1080,10 @@
         <v>1.9017538576268981E-2</v>
       </c>
       <c r="C55" s="6">
-        <v>12125803680.904131</v>
-      </c>
-      <c r="D55" s="6">
-        <v>4276832512.9299998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12095107435.578569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
@@ -1263,13 +1091,10 @@
         <v>-2.9531696448685811E-3</v>
       </c>
       <c r="C56" s="6">
-        <v>12089994125.55405</v>
-      </c>
-      <c r="D56" s="6">
-        <v>4295140983.1099997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12076584145.83964</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
@@ -1277,13 +1102,10 @@
         <v>4.0716978068955363E-5</v>
       </c>
       <c r="C57" s="6">
-        <v>12090486393.57971</v>
-      </c>
-      <c r="D57" s="6">
-        <v>4265451845</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12068028551.71616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
@@ -1291,13 +1113,10 @@
         <v>3.5746813561911887E-2</v>
       </c>
       <c r="C58" s="6">
-        <v>12522682756.563841</v>
-      </c>
-      <c r="D58" s="6">
-        <v>4354547211.1199999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12491877813.604219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
@@ -1305,13 +1124,10 @@
         <v>-3.3344493669318583E-2</v>
       </c>
       <c r="C59" s="6">
-        <v>12105120240.664709</v>
-      </c>
-      <c r="D59" s="6">
-        <v>4258151023.04</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12073331329.36569</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
@@ -1319,13 +1135,10 @@
         <v>2.0473950254678019E-2</v>
       </c>
       <c r="C60" s="6">
-        <v>12352959870.298981</v>
-      </c>
-      <c r="D60" s="6">
-        <v>4285163976.8000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12278055598.704821</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
@@ -1333,13 +1146,10 @@
         <v>1.7759467446639698E-2</v>
       </c>
       <c r="C61" s="6">
-        <v>12572341858.985201</v>
-      </c>
-      <c r="D61" s="6">
-        <v>4341696562.6499996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12511638644.740919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
@@ -1347,13 +1157,10 @@
         <v>2.038370464172878E-2</v>
       </c>
       <c r="C62" s="6">
-        <v>12828612762.093599</v>
-      </c>
-      <c r="D62" s="6">
-        <v>4986611512.0699997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12721797087.892719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
@@ -1361,13 +1168,10 @@
         <v>8.1276556896971108E-2</v>
       </c>
       <c r="C63" s="6">
-        <v>13871278237.16111</v>
-      </c>
-      <c r="D63" s="6">
-        <v>5087365130.3500004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13702254830.175091</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
@@ -1375,13 +1179,10 @@
         <v>-4.5411777146675991E-2</v>
       </c>
       <c r="C64" s="6">
-        <v>13241358841.11561</v>
-      </c>
-      <c r="D64" s="6">
-        <v>5110739057.8199997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13099117753.85771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
@@ -1389,13 +1190,10 @@
         <v>1.7040943226536149E-3</v>
       </c>
       <c r="C65" s="6">
-        <v>13263923365.540979</v>
-      </c>
-      <c r="D65" s="6">
-        <v>5098528846.54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13134342665.333611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
@@ -1403,13 +1201,10 @@
         <v>-3.1676761962470157E-2</v>
       </c>
       <c r="C66" s="6">
-        <v>12843765222.40229</v>
-      </c>
-      <c r="D66" s="6">
-        <v>5084901351.0699997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12729957779.84531</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
@@ -1417,13 +1212,10 @@
         <v>-2.9949877959854151E-2</v>
       </c>
       <c r="C67" s="6">
-        <v>12459096021.44632</v>
-      </c>
-      <c r="D67" s="6">
-        <v>5061385747.1499996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12410199469.74885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
@@ -1431,13 +1223,10 @@
         <v>-4.5314230682312003E-2</v>
       </c>
       <c r="C68" s="6">
-        <v>11894521670.237431</v>
-      </c>
-      <c r="D68" s="6">
-        <v>4948449143.5500002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11848425569.500641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
@@ -1445,13 +1234,10 @@
         <v>2.112032055577839E-2</v>
       </c>
       <c r="C69" s="6">
-        <v>12145737780.770491</v>
-      </c>
-      <c r="D69" s="6">
-        <v>4984734110.6599998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12080161373.182199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
@@ -1459,13 +1245,10 @@
         <v>-1.2392526959605689E-2</v>
       </c>
       <c r="C70" s="6">
-        <v>11995221397.877991</v>
-      </c>
-      <c r="D70" s="6">
-        <v>4833324327.1099997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11915206557.236059</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
@@ -1473,13 +1256,10 @@
         <v>1.028795977911612E-2</v>
       </c>
       <c r="C71" s="6">
-        <v>12118627753.160959</v>
-      </c>
-      <c r="D71" s="6">
-        <v>4774352359.5100002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11963327105.42312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
@@ -1487,13 +1267,10 @@
         <v>2.529809279722794E-3</v>
       </c>
       <c r="C72" s="6">
-        <v>12149285570.10841</v>
-      </c>
-      <c r="D72" s="6">
-        <v>4880247836.6499996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12028794154.63456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
@@ -1501,13 +1278,10 @@
         <v>-1.816438906292128E-3</v>
       </c>
       <c r="C73" s="6">
-        <v>12127217135.11521</v>
-      </c>
-      <c r="D73" s="6">
-        <v>4844551814.1099997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12027040385.97278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
@@ -1515,13 +1289,10 @@
         <v>-4.4240724388010522E-3</v>
       </c>
       <c r="C74" s="6">
-        <v>12073565448.028391</v>
-      </c>
-      <c r="D74" s="6">
-        <v>5415576742.5500002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11937617339.21777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
@@ -1529,13 +1300,10 @@
         <v>8.9135491351566287E-3</v>
       </c>
       <c r="C75" s="6">
-        <v>12181183766.88592</v>
-      </c>
-      <c r="D75" s="6">
-        <v>5318083756.3500004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11961120135.39329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
@@ -1543,13 +1311,10 @@
         <v>2.3035418763072361E-2</v>
       </c>
       <c r="C76" s="6">
-        <v>12461782435.98608</v>
-      </c>
-      <c r="D76" s="6">
-        <v>5338694185.8500004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12226444338.214121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
@@ -1557,13 +1322,10 @@
         <v>3.810769859349894E-2</v>
       </c>
       <c r="C77" s="6">
-        <v>12936672284.99439</v>
-      </c>
-      <c r="D77" s="6">
-        <v>5505915040.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12681677192.902321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
@@ -1571,13 +1333,10 @@
         <v>1.54053833534844E-2</v>
       </c>
       <c r="C78" s="6">
-        <v>13135966680.863131</v>
-      </c>
-      <c r="D78" s="6">
-        <v>5538988181.4499998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12942846205.05168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
@@ -1585,13 +1344,10 @@
         <v>-5.4427919619763898E-3</v>
       </c>
       <c r="C79" s="6">
-        <v>13064470346.999741</v>
-      </c>
-      <c r="D79" s="6">
-        <v>5531594102.9499998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12889734706.90752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
@@ -1599,13 +1355,10 @@
         <v>4.3863185207144273E-2</v>
       </c>
       <c r="C80" s="6">
-        <v>13637519629.46343</v>
-      </c>
-      <c r="D80" s="6">
-        <v>5569334217.7600002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13367478528.159941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
@@ -1613,13 +1366,10 @@
         <v>2.4660875685585729E-2</v>
       </c>
       <c r="C81" s="6">
-        <v>13973832805.70536</v>
-      </c>
-      <c r="D81" s="6">
-        <v>5669685323.0900002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13654286685.46859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
@@ -1627,13 +1377,10 @@
         <v>-5.822137264527294E-4</v>
       </c>
       <c r="C82" s="6">
-        <v>13965697048.434731</v>
-      </c>
-      <c r="D82" s="6">
-        <v>5658306874.6499996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13722094865.84173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
@@ -1641,13 +1388,10 @@
         <v>-1.8814607877509441E-2</v>
       </c>
       <c r="C83" s="6">
-        <v>13702937934.73234</v>
-      </c>
-      <c r="D83" s="6">
-        <v>6047292088.0200005</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13488556606.61026</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
@@ -1655,13 +1399,10 @@
         <v>-3.3798048456147763E-2</v>
       </c>
       <c r="C84" s="6">
-        <v>13239805374.42267</v>
-      </c>
-      <c r="D84" s="6">
-        <v>5944249077.3100004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13043437376.635019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
@@ -1669,13 +1410,10 @@
         <v>-6.106677142295136E-2</v>
       </c>
       <c r="C85" s="6">
-        <v>12431293205.938431</v>
-      </c>
-      <c r="D85" s="6">
-        <v>5857951330.0799999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12308237202.233709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
@@ -1683,13 +1421,10 @@
         <v>-4.2814932046097992E-4</v>
       </c>
       <c r="C86" s="6">
-        <v>12425970756.19986</v>
-      </c>
-      <c r="D86" s="6">
-        <v>6253513976.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12314255292.56172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
@@ -1697,13 +1432,10 @@
         <v>-3.2304413450889862E-3</v>
       </c>
       <c r="C87" s="6">
-        <v>12385829386.516171</v>
-      </c>
-      <c r="D87" s="6">
-        <v>6308462886.3400002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12291324073.50181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
@@ -1711,13 +1443,10 @@
         <v>2.026408046596417E-2</v>
       </c>
       <c r="C88" s="6">
-        <v>12636816829.84223</v>
-      </c>
-      <c r="D88" s="6">
-        <v>6400976668.1800003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12535693207.23698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -1725,13 +1454,10 @@
         <v>-1.3244995182680739E-2</v>
       </c>
       <c r="C89" s="6">
-        <v>12469442251.806549</v>
-      </c>
-      <c r="D89" s="6">
-        <v>7099971446.0200005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12375364143.48542</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
@@ -1739,13 +1465,10 @@
         <v>1.429784962941949E-2</v>
       </c>
       <c r="C90" s="6">
-        <v>12647728462.085621</v>
-      </c>
-      <c r="D90" s="6">
-        <v>7176134170.54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12524773883.638121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
@@ -1753,13 +1476,10 @@
         <v>1.967021305615857E-2</v>
       </c>
       <c r="C91" s="6">
-        <v>12896511975.61128</v>
-      </c>
-      <c r="D91" s="6">
-        <v>7264954337.0500002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12791228838.15436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
@@ -1767,13 +1487,10 @@
         <v>6.3133985267822554E-3</v>
       </c>
       <c r="C92" s="6">
-        <v>12977932795.318729</v>
-      </c>
-      <c r="D92" s="6">
-        <v>7282406497.0799999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12871989923.302139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
@@ -1781,13 +1498,10 @@
         <v>3.5378267883749981E-3</v>
       </c>
       <c r="C93" s="6">
-        <v>13023846473.61974</v>
-      </c>
-      <c r="D93" s="6">
-        <v>7343644210.3999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12899114082.373369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
@@ -1795,13 +1509,10 @@
         <v>1.5340196987035931E-2</v>
       </c>
       <c r="C94" s="6">
-        <v>13223634844.05398</v>
-      </c>
-      <c r="D94" s="6">
-        <v>7401114464.4399996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13143434383.16448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
@@ -1809,13 +1520,10 @@
         <v>-1.118134664421822E-2</v>
       </c>
       <c r="C95" s="6">
-        <v>13075776798.966049</v>
-      </c>
-      <c r="D95" s="6">
-        <v>7439354518.6199999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12979420518.224171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
@@ -1823,13 +1531,10 @@
         <v>6.9199720696493383E-3</v>
       </c>
       <c r="C96" s="6">
-        <v>13166260809.203871</v>
-      </c>
-      <c r="D96" s="6">
-        <v>7501162607.2399998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13052082534.112829</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
@@ -1837,13 +1542,10 @@
         <v>-2.3570382716364691E-4</v>
       </c>
       <c r="C97" s="6">
-        <v>13163157471.141701</v>
-      </c>
-      <c r="D97" s="6">
-        <v>7578785278.6599998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13077727825.936661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
@@ -1851,13 +1553,10 @@
         <v>2.8724169515791601E-2</v>
       </c>
       <c r="C98" s="6">
-        <v>13541258237.705839</v>
-      </c>
-      <c r="D98" s="6">
-        <v>9002210135.4300003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13437736935.848749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
@@ -1865,13 +1564,10 @@
         <v>-3.1257117773014431E-2</v>
       </c>
       <c r="C99" s="6">
-        <v>13117997534.17506</v>
-      </c>
-      <c r="D99" s="6">
-        <v>9202610590.7199993</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12999422243.686529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
@@ -1879,13 +1575,10 @@
         <v>-3.7076854720171859E-2</v>
       </c>
       <c r="C100" s="6">
-        <v>12631623445.38088</v>
-      </c>
-      <c r="D100" s="6">
-        <v>8905152042.1100006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12552020901.786341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
@@ -1893,13 +1586,10 @@
         <v>7.7871925159622712E-3</v>
       </c>
       <c r="C101" s="6">
-        <v>12729988328.939199</v>
-      </c>
-      <c r="D101" s="6">
-        <v>8894650969.9099998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12655128136.605801</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
@@ -1907,13 +1597,10 @@
         <v>-1.9984871653736299E-2</v>
       </c>
       <c r="C102" s="6">
-        <v>12475581146.03179</v>
-      </c>
-      <c r="D102" s="6">
-        <v>8853026337.9799995</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12417244075.130659</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
@@ -1921,13 +1608,10 @@
         <v>9.5281485181908376E-3</v>
       </c>
       <c r="C103" s="6">
-        <v>12594450336.041929</v>
-      </c>
-      <c r="D103" s="6">
-        <v>8890561971.1299992</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12513810012.46526</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
@@ -1935,13 +1619,10 @@
         <v>-1.9194542114026381E-2</v>
       </c>
       <c r="C104" s="6">
-        <v>12352705628.663759</v>
-      </c>
-      <c r="D104" s="6">
-        <v>8841470603.1499996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12255540583.634939</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
@@ -1949,13 +1630,10 @@
         <v>6.3462578255248916E-3</v>
       </c>
       <c r="C105" s="6">
-        <v>12431099083.426069</v>
-      </c>
-      <c r="D105" s="6">
-        <v>8936073454</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12285608307.871441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
@@ -1963,13 +1641,10 @@
         <v>5.9084787623662196E-3</v>
       </c>
       <c r="C106" s="6">
-        <v>12504547968.353359</v>
-      </c>
-      <c r="D106" s="6">
-        <v>8984375598.6599998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12393941132.979561</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
@@ -1977,13 +1652,10 @@
         <v>-1.8127410883633122E-2</v>
       </c>
       <c r="C107" s="6">
-        <v>12277872889.41692</v>
-      </c>
-      <c r="D107" s="6">
-        <v>8913881251.3999996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12146144784.238899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
@@ -1991,13 +1663,10 @@
         <v>-4.1825931362335811E-2</v>
       </c>
       <c r="C108" s="6">
-        <v>11764339420.66868</v>
-      </c>
-      <c r="D108" s="6">
-        <v>8522844994.3999996</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11697950175.158871</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
@@ -2005,13 +1674,10 @@
         <v>4.2615623975472689E-4</v>
       </c>
       <c r="C109" s="6">
-        <v>11769352867.319389</v>
-      </c>
-      <c r="D109" s="6">
-        <v>8594776142.1399994</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11679624506.541451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
@@ -2019,13 +1685,10 @@
         <v>3.7265597827168102E-2</v>
       </c>
       <c r="C110" s="6">
-        <v>12207944837.95895</v>
-      </c>
-      <c r="D110" s="6">
-        <v>8430913509.8800001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12090906724.066521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
@@ -2033,13 +1696,10 @@
         <v>2.6425757720248019E-2</v>
       </c>
       <c r="C111" s="6">
-        <v>12530549030.509001</v>
-      </c>
-      <c r="D111" s="6">
-        <v>8716930851.9699993</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12311682528.941919</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
@@ -2047,13 +1707,10 @@
         <v>-7.8271711054272997E-3</v>
       </c>
       <c r="C112" s="6">
-        <v>12432470279.202259</v>
-      </c>
-      <c r="D112" s="6">
-        <v>8780002278.0200005</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12265944650.578569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
@@ -2061,13 +1718,10 @@
         <v>4.8311835317425889E-2</v>
       </c>
       <c r="C113" s="6">
-        <v>13033105735.91987</v>
-      </c>
-      <c r="D113" s="6">
-        <v>8939502054.1399994</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12876084988.12841</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
@@ -2075,13 +1729,10 @@
         <v>-1.3406545510199149E-2</v>
       </c>
       <c r="C114" s="6">
-        <v>12858376810.732031</v>
-      </c>
-      <c r="D114" s="6">
-        <v>9008244776.2800007</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12715683948.73177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
@@ -2089,13 +1740,10 @@
         <v>3.8618518059663209E-2</v>
       </c>
       <c r="C115" s="6">
-        <v>13354948267.815241</v>
-      </c>
-      <c r="D115" s="6">
-        <v>8944260855.8600006</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13201837647.86319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
@@ -2103,13 +1751,10 @@
         <v>3.1935578654313401E-2</v>
       </c>
       <c r="C116" s="6">
-        <v>13781446268.646339</v>
-      </c>
-      <c r="D116" s="6">
-        <v>9215995868.9500008</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13572881297.765511</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
@@ -2117,13 +1762,10 @@
         <v>1.22879832327214E-2</v>
       </c>
       <c r="C117" s="6">
-        <v>13950792449.31811</v>
-      </c>
-      <c r="D117" s="6">
-        <v>9238385070.6700001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13746042885.93487</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
@@ -2131,13 +1773,10 @@
         <v>8.0812946262139418E-2</v>
       </c>
       <c r="C118" s="6">
-        <v>15078197089.839121</v>
-      </c>
-      <c r="D118" s="6">
-        <v>9436337524.5699997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14835786553.963261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
@@ -2145,13 +1784,10 @@
         <v>-2.424463653545161E-2</v>
       </c>
       <c r="C119" s="6">
-        <v>14712631681.78606</v>
-      </c>
-      <c r="D119" s="6">
-        <v>10602215448.620001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14469421400.396749</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
@@ -2159,13 +1795,10 @@
         <v>1.345761816897717E-4</v>
       </c>
       <c r="C120" s="6">
-        <v>14714611651.58041</v>
-      </c>
-      <c r="D120" s="6">
-        <v>10608252625.24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14470608489.71245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
@@ -2173,13 +1806,10 @@
         <v>-2.7561175531365389E-4</v>
       </c>
       <c r="C121" s="6">
-        <v>14710556131.634359</v>
-      </c>
-      <c r="D121" s="6">
-        <v>10692316903.4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14474659910.11507</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
@@ -2187,13 +1817,10 @@
         <v>-1.6036708936056129E-2</v>
       </c>
       <c r="C122" s="6">
-        <v>14474647224.66382</v>
-      </c>
-      <c r="D122" s="6">
-        <v>10758442213.969999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14175515378.96693</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
@@ -2201,13 +1828,10 @@
         <v>5.794455724586034E-2</v>
       </c>
       <c r="C123" s="6">
-        <v>15313374249.38699</v>
-      </c>
-      <c r="D123" s="6">
-        <v>10840639312.879999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15077499219.32258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
@@ -2215,13 +1839,10 @@
         <v>2.94377560270811E-2</v>
       </c>
       <c r="C124" s="6">
-        <v>15764165624.491831</v>
-      </c>
-      <c r="D124" s="6">
-        <v>10574286223.879999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15516824799.10807</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
@@ -2229,13 +1850,10 @@
         <v>-6.6281754800621595E-2</v>
       </c>
       <c r="C125" s="6">
-        <v>14719289063.932871</v>
-      </c>
-      <c r="D125" s="6">
-        <v>9764305551.3600006</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13789355772.495041</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
@@ -2243,13 +1861,10 @@
         <v>6.4697430787004295E-2</v>
       </c>
       <c r="C126" s="6">
-        <v>15671589249.380581</v>
-      </c>
-      <c r="D126" s="6">
-        <v>10283094677.360001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14859608748.479509</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
@@ -2257,13 +1872,10 @@
         <v>6.0570745598895748E-3</v>
       </c>
       <c r="C127" s="6">
-        <v>15766513233.936041</v>
-      </c>
-      <c r="D127" s="6">
-        <v>10409182664.049999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15182891367.522141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -2271,10 +1883,7 @@
         <v>1.456205400967114E-2</v>
       </c>
       <c r="C128" s="6">
-        <v>15996106051.19281</v>
-      </c>
-      <c r="D128" s="6">
-        <v>10514205392.24</v>
+        <v>15483710113.81074</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,10 +1894,7 @@
         <v>7.6336405424904052E-2</v>
       </c>
       <c r="C129" s="6">
-        <v>17217191287.936432</v>
-      </c>
-      <c r="D129" s="6">
-        <v>10849449410.809999</v>
+        <v>16684514007.46744</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2299,10 +1905,7 @@
         <v>-6.2437909009849912E-2</v>
       </c>
       <c r="C130" s="6">
-        <v>16142185864.895069</v>
-      </c>
-      <c r="D130" s="6">
-        <v>11005151438.129999</v>
+        <v>15766026047.05864</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,10 +1916,7 @@
         <v>1.130384896524506E-3</v>
       </c>
       <c r="C131" s="6">
-        <v>16160432747.993641</v>
-      </c>
-      <c r="D131" s="6">
-        <v>11506934819.120001</v>
+        <v>15687527151.75676</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,10 +1927,7 @@
         <v>-2.376523484538395E-2</v>
       </c>
       <c r="C132" s="6">
-        <v>15776376268.53454</v>
-      </c>
-      <c r="D132" s="6">
-        <v>11238592497.879999</v>
+        <v>15243016795.46752</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,10 +1938,7 @@
         <v>5.1751789691280907E-2</v>
       </c>
       <c r="C133" s="6">
-        <v>16592831975.27426</v>
-      </c>
-      <c r="D133" s="6">
-        <v>11941273405.450001</v>
+        <v>16006191152.73431</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,10 +1949,7 @@
         <v>-3.9800248956293194E-3</v>
       </c>
       <c r="C134" s="6">
-        <v>16526792090.92367</v>
-      </c>
-      <c r="D134" s="6">
-        <v>12756299620.309999</v>
+        <v>16058849945.462259</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2369,10 +1960,7 @@
         <v>-3.9147078356353122E-2</v>
       </c>
       <c r="C135" s="6">
-        <v>15879816465.961121</v>
-      </c>
-      <c r="D135" s="6">
-        <v>12558243414.610001</v>
+        <v>15554993574.53742</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,10 +1971,7 @@
         <v>-4.6684362416430703E-2</v>
       </c>
       <c r="C136" s="6">
-        <v>15138477358.95779</v>
-      </c>
-      <c r="D136" s="6">
-        <v>12499730482.129999</v>
+        <v>14858093109.20677</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2397,10 +1982,7 @@
         <v>-4.0254688673549088E-2</v>
       </c>
       <c r="C137" s="6">
-        <v>14529082665.881371</v>
-      </c>
-      <c r="D137" s="6">
-        <v>12629967215.83</v>
+        <v>14267192454.664</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,10 +1993,7 @@
         <v>2.425033353671369E-2</v>
       </c>
       <c r="C138" s="6">
-        <v>14881417766.51148</v>
-      </c>
-      <c r="D138" s="6">
-        <v>12959077328.639999</v>
+        <v>14621747916.14069</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,10 +2004,7 @@
         <v>2.7091492994923971E-3</v>
       </c>
       <c r="C139" s="6">
-        <v>14921733749.029079</v>
-      </c>
-      <c r="D139" s="6">
-        <v>13155170030.18</v>
+        <v>14718707257.538099</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,10 +2015,7 @@
         <v>4.2923889076373227E-2</v>
       </c>
       <c r="C140" s="6">
-        <v>15562232593.29958</v>
-      </c>
-      <c r="D140" s="6">
-        <v>13363308598.309999</v>
+        <v>15321211362.71917</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,10 +2026,7 @@
         <v>2.484444652838547E-2</v>
       </c>
       <c r="C141" s="6">
-        <v>15948867648.826111</v>
-      </c>
-      <c r="D141" s="6">
-        <v>13542680564.469999</v>
+        <v>15741781645.65703</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,10 +2037,7 @@
         <v>-9.1381260737234404E-3</v>
       </c>
       <c r="C142" s="6">
-        <v>15803124885.518009</v>
-      </c>
-      <c r="D142" s="6">
-        <v>13707767980.07</v>
+        <v>15591003752.03636</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,11 +2048,9 @@
         <v>-2.2593844901014241E-2</v>
       </c>
       <c r="C143" s="6">
-        <v>15446071532.903259</v>
-      </c>
-      <c r="D143" s="6">
-        <v>13203547316.24</v>
-      </c>
+        <v>14294934938.190041</v>
+      </c>
+      <c r="D143" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B142">
@@ -2499,43 +2064,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBA9FD4-CF43-40AB-9D8A-6D8C9591E0D3}">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E114" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
       <c r="C2" s="6">
-        <v>8258101946.2517118</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2133361000.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8107500614.3207464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
@@ -2543,13 +2102,10 @@
         <v>8.719736855125948E-3</v>
       </c>
       <c r="C3" s="6">
-        <v>8330110422.1458311</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2102497497.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8217203921.0962696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
@@ -2557,13 +2113,10 @@
         <v>-8.6527121101204196E-3</v>
       </c>
       <c r="C4" s="6">
-        <v>8258032374.8174896</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2128528078.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8102607273.8321972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
@@ -2571,13 +2124,10 @@
         <v>-9.9091806855864384E-3</v>
       </c>
       <c r="C5" s="6">
-        <v>8176202039.9080009</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2204069195.0599999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8068174248.223834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
@@ -2585,13 +2135,10 @@
         <v>4.1721254046773071E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>8517323442.352747</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2249160289.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8405362689.4377041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
@@ -2599,13 +2146,10 @@
         <v>-5.1476578306843823E-3</v>
       </c>
       <c r="C7" s="6">
-        <v>8473479175.6382484</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2151316976.4400001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8263498864.6157761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
@@ -2613,13 +2157,10 @@
         <v>5.7899442313545491E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>8964088894.3631439</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2126807551.9400001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8727839431.786911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
@@ -2627,13 +2168,10 @@
         <v>9.892146458254425E-3</v>
       </c>
       <c r="C9" s="6">
-        <v>9052762974.5709953</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2217049566.9200001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8859430967.4604874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
@@ -2641,13 +2179,10 @@
         <v>6.4744082384764479E-2</v>
       </c>
       <c r="C10" s="6">
-        <v>9638875806.4063644</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2218270319.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9373280427.538599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
@@ -2655,13 +2190,10 @@
         <v>-1.638302154591886E-2</v>
       </c>
       <c r="C11" s="6">
-        <v>9480961896.391573</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2429501039.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9264972580.9692345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
@@ -2669,13 +2201,10 @@
         <v>-4.4693731488537843E-2</v>
       </c>
       <c r="C12" s="6">
-        <v>9057222331.1411896</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2451294838.8699999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8872327028.7700806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
@@ -2683,13 +2212,10 @@
         <v>-5.5743487070661901E-3</v>
       </c>
       <c r="C13" s="6">
-        <v>9006734215.5499821</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2932628117.6100001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8811015331.2792282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
@@ -2697,13 +2223,10 @@
         <v>-1.5760999157157559E-2</v>
       </c>
       <c r="C14" s="6">
-        <v>8864779085.1699562</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3016301371.6999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8743897063.5080261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
@@ -2711,13 +2234,10 @@
         <v>-3.6652032124446343E-2</v>
       </c>
       <c r="C15" s="6">
-        <v>8539866917.3641872</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3010941131.6700001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8422384539.3191013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
@@ -2725,13 +2245,10 @@
         <v>2.019793553564786E-2</v>
       </c>
       <c r="C16" s="6">
-        <v>8712354598.84412</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3072606771.4099998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8624315195.1216908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
@@ -2739,13 +2256,10 @@
         <v>-1.5467252368327239E-2</v>
       </c>
       <c r="C17" s="6">
-        <v>8577598411.5414419</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3077934373.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8485689858.3027573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
@@ -2753,13 +2267,10 @@
         <v>2.4995455025492271E-2</v>
       </c>
       <c r="C18" s="6">
-        <v>8791999386.8638592</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3168259937.3499999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8713761369.4593811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
@@ -2767,13 +2278,10 @@
         <v>2.034587050116277E-2</v>
       </c>
       <c r="C19" s="6">
-        <v>8970880267.8352928</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3185699769.8800001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8868266114.1711807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
@@ -2781,13 +2289,10 @@
         <v>-3.1361540887093531E-2</v>
       </c>
       <c r="C20" s="6">
-        <v>8689539639.522356</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3131056633.27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8600598080.3660145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
@@ -2795,13 +2300,10 @@
         <v>5.1590911648031978E-2</v>
       </c>
       <c r="C21" s="6">
-        <v>9137840911.3270264</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3162162793.9699998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8951637294.291853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
@@ -2809,13 +2311,10 @@
         <v>2.6282790193010941E-2</v>
       </c>
       <c r="C22" s="6">
-        <v>9378008866.8165474</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3139082692.54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9115515589.0277386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
@@ -2823,13 +2322,10 @@
         <v>8.7508236273844853E-2</v>
       </c>
       <c r="C23" s="6">
-        <v>10198661882.51214</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3200272417.1500001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9726192187.3085537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
@@ -2837,13 +2333,10 @@
         <v>-1.265152054281016E-3</v>
       </c>
       <c r="C24" s="6">
-        <v>10185759024.48056</v>
-      </c>
-      <c r="D24" s="6">
-        <v>3311931768.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9775252634.8721867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
@@ -2851,13 +2344,10 @@
         <v>1.9636944719323419E-3</v>
       </c>
       <c r="C25" s="6">
-        <v>10205760743.169371</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3286738232.0300002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9849648797.302206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
@@ -2865,13 +2355,10 @@
         <v>5.059211111411055E-2</v>
       </c>
       <c r="C26" s="6">
-        <v>10722091724.69182</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3322199318.5999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10326455875.189659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
@@ -2879,13 +2366,10 @@
         <v>-7.1693840333347802E-3</v>
       </c>
       <c r="C27" s="6">
-        <v>10645220931.47687</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3411636959.7800002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10266622335.11927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
@@ -2893,13 +2377,10 @@
         <v>2.0933230026234369E-3</v>
       </c>
       <c r="C28" s="6">
-        <v>10667504817.32074</v>
-      </c>
-      <c r="D28" s="6">
-        <v>3465240303.9000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10308416452.64275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
@@ -2907,13 +2388,10 @@
         <v>-3.9311338996477541E-2</v>
       </c>
       <c r="C29" s="6">
-        <v>10248150919.20048</v>
-      </c>
-      <c r="D29" s="6">
-        <v>3448893913.0500002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9986793171.0881767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
@@ -2921,13 +2399,10 @@
         <v>2.2914954137366991E-2</v>
       </c>
       <c r="C30" s="6">
-        <v>10482986827.506781</v>
-      </c>
-      <c r="D30" s="6">
-        <v>3481026300.1199999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10193621200.66151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
@@ -2935,13 +2410,10 @@
         <v>3.6474986713143753E-2</v>
       </c>
       <c r="C31" s="6">
-        <v>10865353632.75415</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3453190328.1199999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10532959281.624649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
@@ -2949,13 +2421,10 @@
         <v>3.864618684691945E-2</v>
       </c>
       <c r="C32" s="6">
-        <v>11285258119.403419</v>
-      </c>
-      <c r="D32" s="6">
-        <v>3497243829.1300001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11003298714.1556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
@@ -2963,13 +2432,10 @@
         <v>7.5667495721901901E-2</v>
       </c>
       <c r="C33" s="6">
-        <v>12139185339.87394</v>
-      </c>
-      <c r="D33" s="6">
-        <v>3572637746.48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11793376482.11326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
@@ -2977,13 +2443,10 @@
         <v>-1.7655840321738059E-2</v>
       </c>
       <c r="C34" s="6">
-        <v>11924857821.87714</v>
-      </c>
-      <c r="D34" s="6">
-        <v>3592909103.4099998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11649432287.22603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
@@ -2991,13 +2454,10 @@
         <v>-1.9605918248747689E-2</v>
       </c>
       <c r="C35" s="6">
-        <v>11691060034.29348</v>
-      </c>
-      <c r="D35" s="6">
-        <v>3620604152.5799999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11468049950.934549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
@@ -3005,13 +2465,10 @@
         <v>2.0744584073955741E-2</v>
       </c>
       <c r="C36" s="6">
-        <v>11933586212.088539</v>
-      </c>
-      <c r="D36" s="6">
-        <v>3622924774.9499998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11719149027.84539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
@@ -3019,13 +2476,10 @@
         <v>-1.463248175506349E-2</v>
       </c>
       <c r="C37" s="6">
-        <v>11758968229.56768</v>
-      </c>
-      <c r="D37" s="6">
-        <v>3646999015.1599998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11550690076.80711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
@@ -3033,13 +2487,10 @@
         <v>-2.547643228487928E-2</v>
       </c>
       <c r="C38" s="6">
-        <v>11459391671.727051</v>
-      </c>
-      <c r="D38" s="6">
-        <v>3654809047.6500001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11277410374.51494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
@@ -3047,13 +2498,10 @@
         <v>-4.4488955426283387E-2</v>
       </c>
       <c r="C39" s="6">
-        <v>10949575306.431259</v>
-      </c>
-      <c r="D39" s="6">
-        <v>4490569394.4099998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10781883883.499281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
@@ -3061,13 +2509,10 @@
         <v>8.0587836042140815E-3</v>
       </c>
       <c r="C40" s="6">
-        <v>11037815564.383841</v>
-      </c>
-      <c r="D40" s="6">
-        <v>4511270646.8800001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10880482270.20031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
@@ -3075,13 +2520,10 @@
         <v>-1.07734658167723E-2</v>
       </c>
       <c r="C41" s="6">
-        <v>10918900035.70911</v>
-      </c>
-      <c r="D41" s="6">
-        <v>4573664426.0299997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10753031774.455339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
@@ -3089,13 +2531,10 @@
         <v>4.6237279836323308E-2</v>
       </c>
       <c r="C42" s="6">
-        <v>11423760272.165039</v>
-      </c>
-      <c r="D42" s="6">
-        <v>4682846886.2700005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11237037380.48111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
@@ -3103,13 +2542,10 @@
         <v>-7.462821605493164E-2</v>
       </c>
       <c r="C43" s="6">
-        <v>10571225422.41416</v>
-      </c>
-      <c r="D43" s="6">
-        <v>4599347535.8999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10425021174.06138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
@@ -3117,13 +2553,10 @@
         <v>-5.2326258686360871E-2</v>
       </c>
       <c r="C44" s="6">
-        <v>10018072746.329081</v>
-      </c>
-      <c r="D44" s="6">
-        <v>4510251396.9099998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9863293885.8333302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
@@ -3131,13 +2564,10 @@
         <v>-1.698465757137835E-3</v>
       </c>
       <c r="C45" s="6">
-        <v>10001057392.816931</v>
-      </c>
-      <c r="D45" s="6">
-        <v>4568724212.6999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9881046128.4572639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
@@ -3145,13 +2575,10 @@
         <v>-7.3593650811734079E-3</v>
       </c>
       <c r="C46" s="6">
-        <v>9927455960.2654171</v>
-      </c>
-      <c r="D46" s="6">
-        <v>4512507452.0299997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9831411784.223526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
@@ -3159,13 +2586,10 @@
         <v>-9.581791608085255E-3</v>
       </c>
       <c r="C47" s="6">
-        <v>9832333146.0557098</v>
-      </c>
-      <c r="D47" s="6">
-        <v>4749762591.5299997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9741049567.0426254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
@@ -3173,13 +2597,10 @@
         <v>1.8642247113946461E-2</v>
       </c>
       <c r="C48" s="6">
-        <v>10015629930.27113</v>
-      </c>
-      <c r="D48" s="6">
-        <v>4848589342.7200003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9944228528.7247086</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
@@ -3187,13 +2608,10 @@
         <v>-1.9253764417662019E-2</v>
       </c>
       <c r="C49" s="6">
-        <v>9822791351.0992031</v>
-      </c>
-      <c r="D49" s="6">
-        <v>4850653743.3999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9759109926.217865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
@@ -3201,13 +2619,10 @@
         <v>-4.7136206102204037E-3</v>
       </c>
       <c r="C50" s="6">
-        <v>9776490439.3367672</v>
-      </c>
-      <c r="D50" s="6">
-        <v>4879983265.3800001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9698178377.7681427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
@@ -3215,13 +2630,10 @@
         <v>4.7228295713014123E-2</v>
       </c>
       <c r="C51" s="6">
-        <v>10238217420.841221</v>
-      </c>
-      <c r="D51" s="6">
-        <v>4882894726.29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10177609162.252001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
@@ -3229,13 +2641,10 @@
         <v>1.623607109174241E-2</v>
       </c>
       <c r="C52" s="6">
-        <v>10404445846.73871</v>
-      </c>
-      <c r="D52" s="6">
-        <v>4988729007.2700005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10343796310.24538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
@@ -3243,13 +2652,10 @@
         <v>7.4104885627677142E-3</v>
       </c>
       <c r="C53" s="6">
-        <v>10481547873.68791</v>
-      </c>
-      <c r="D53" s="6">
-        <v>5019984158.5799999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10428451293.083731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
@@ -3257,13 +2663,10 @@
         <v>1.8833016880299699E-2</v>
       </c>
       <c r="C54" s="6">
-        <v>10678947041.724739</v>
-      </c>
-      <c r="D54" s="6">
-        <v>5026144812.3100004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10619776421.19713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
@@ -3271,13 +2674,10 @@
         <v>2.06140053437649E-2</v>
       </c>
       <c r="C55" s="6">
-        <v>10899082913.108629</v>
-      </c>
-      <c r="D55" s="6">
-        <v>5112975530.5600004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10848899158.09473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
@@ -3285,13 +2685,10 @@
         <v>-2.7623769004208039E-3</v>
       </c>
       <c r="C56" s="6">
-        <v>10868975538.23369</v>
-      </c>
-      <c r="D56" s="6">
-        <v>5144862372.5200005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10837060411.587721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
@@ -3299,13 +2696,10 @@
         <v>6.3612323189632392E-4</v>
       </c>
       <c r="C57" s="6">
-        <v>10875889546.080469</v>
-      </c>
-      <c r="D57" s="6">
-        <v>5119794037.9899998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10837485076.16316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
@@ -3313,13 +2707,10 @@
         <v>4.0208879077181743E-2</v>
       </c>
       <c r="C58" s="6">
-        <v>11313196873.69561</v>
-      </c>
-      <c r="D58" s="6">
-        <v>5237452701.8199997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11266209110.60321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
@@ -3327,13 +2718,10 @@
         <v>-3.6861969230234881E-2</v>
       </c>
       <c r="C59" s="6">
-        <v>10896170158.64185</v>
-      </c>
-      <c r="D59" s="6">
-        <v>5131976211.71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10848202533.15654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
@@ -3341,13 +2729,10 @@
         <v>2.300217625531964E-2</v>
       </c>
       <c r="C60" s="6">
-        <v>11146805785.138889</v>
-      </c>
-      <c r="D60" s="6">
-        <v>5172926233.0100002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11055724668.989189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
@@ -3355,13 +2740,10 @@
         <v>1.975638972394789E-2</v>
       </c>
       <c r="C61" s="6">
-        <v>11367026424.407249</v>
-      </c>
-      <c r="D61" s="6">
-        <v>5252461885.8400002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11290348292.569111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
@@ -3369,13 +2751,10 @@
         <v>2.4134608848103371E-2</v>
       </c>
       <c r="C62" s="6">
-        <v>11641365160.926371</v>
-      </c>
-      <c r="D62" s="6">
-        <v>5448191101.3800001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11519037564.25359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
@@ -3383,13 +2762,10 @@
         <v>9.1456275358364314E-2</v>
       </c>
       <c r="C63" s="6">
-        <v>12706041058.631321</v>
-      </c>
-      <c r="D63" s="6">
-        <v>5567918737.1199999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12520832515.71797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
@@ -3397,13 +2773,10 @@
         <v>-5.1081214479721471E-2</v>
       </c>
       <c r="C64" s="6">
-        <v>12057001050.12723</v>
-      </c>
-      <c r="D64" s="6">
-        <v>5603210665.9399996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11900269046.26499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
@@ -3411,13 +2784,10 @@
         <v>1.93607697680287E-3</v>
       </c>
       <c r="C65" s="6">
-        <v>12080344332.26967</v>
-      </c>
-      <c r="D65" s="6">
-        <v>5599621915.2799997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11934485358.727079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
@@ -3425,13 +2795,10 @@
         <v>-3.6235638650349511E-2</v>
       </c>
       <c r="C66" s="6">
-        <v>11642605340.27375</v>
-      </c>
-      <c r="D66" s="6">
-        <v>5594550723.8299999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11510279213.0765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
@@ -3439,13 +2806,10 @@
         <v>-3.4074778043065579E-2</v>
       </c>
       <c r="C67" s="6">
-        <v>11245886147.460911</v>
-      </c>
-      <c r="D67" s="6">
-        <v>5578675769.6700001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11178671126.85433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
@@ -3453,13 +2817,10 @@
         <v>-5.0382699451198658E-2</v>
       </c>
       <c r="C68" s="6">
-        <v>10679288045.630989</v>
-      </c>
-      <c r="D68" s="6">
-        <v>5464086350.6700001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10614597571.960911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
@@ -3467,13 +2828,10 @@
         <v>2.4150588970932581E-2</v>
       </c>
       <c r="C69" s="6">
-        <v>10937199141.723221</v>
-      </c>
-      <c r="D69" s="6">
-        <v>5514366076.0299997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10854021028.186081</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
@@ -3481,13 +2839,10 @@
         <v>-1.3659085530816181E-2</v>
       </c>
       <c r="C70" s="6">
-        <v>10787807003.17885</v>
-      </c>
-      <c r="D70" s="6">
-        <v>5356648129.1499996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10692747635.80793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
@@ -3495,13 +2850,10 @@
         <v>1.059886488599737E-2</v>
       </c>
       <c r="C71" s="6">
-        <v>10902145512.021761</v>
-      </c>
-      <c r="D71" s="6">
-        <v>5301454591.4700003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10729301576.50676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
@@ -3509,13 +2861,10 @@
         <v>2.8620071784080099E-3</v>
       </c>
       <c r="C72" s="6">
-        <v>10933347530.737209</v>
-      </c>
-      <c r="D72" s="6">
-        <v>5397632819.4899998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10796720099.94245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
@@ -3523,13 +2872,10 @@
         <v>-1.910968974769389E-3</v>
       </c>
       <c r="C73" s="6">
-        <v>10912454242.815599</v>
-      </c>
-      <c r="D73" s="6">
-        <v>5368571908.9799995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10796842745.082899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
@@ -3537,13 +2883,10 @@
         <v>-4.3640998635692263E-3</v>
       </c>
       <c r="C74" s="6">
-        <v>10864831202.74333</v>
-      </c>
-      <c r="D74" s="6">
-        <v>5709868087.2700005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10714579903.851761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
@@ -3551,13 +2894,10 @@
         <v>9.0937418127159386E-3</v>
       </c>
       <c r="C75" s="6">
-        <v>10963633172.53981</v>
-      </c>
-      <c r="D75" s="6">
-        <v>5616578571.1400003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10728803507.132521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
@@ -3565,13 +2905,10 @@
         <v>2.6059126136072971E-2</v>
       </c>
       <c r="C76" s="6">
-        <v>11249335872.29266</v>
-      </c>
-      <c r="D76" s="6">
-        <v>5647936294.4499998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11002482858.04174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
@@ -3579,13 +2916,10 @@
         <v>4.2258968088434878E-2</v>
       </c>
       <c r="C77" s="6">
-        <v>11724721197.935961</v>
-      </c>
-      <c r="D77" s="6">
-        <v>5834802926.8000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11455210718.273331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
@@ -3593,13 +2927,10 @@
         <v>1.737406609306236E-2</v>
       </c>
       <c r="C78" s="6">
-        <v>11928427278.95163</v>
-      </c>
-      <c r="D78" s="6">
-        <v>5879483219.7200003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11714481117.23077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
@@ -3607,13 +2938,10 @@
         <v>-5.6651854813019042E-3</v>
       </c>
       <c r="C79" s="6">
-        <v>11860850525.916149</v>
-      </c>
-      <c r="D79" s="6">
-        <v>5881279255.8699999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11666092640.64093</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
@@ -3621,13 +2949,10 @@
         <v>4.8328795014499708E-2</v>
       </c>
       <c r="C80" s="6">
-        <v>12434071139.680771</v>
-      </c>
-      <c r="D80" s="6">
-        <v>5931068967.1999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12135639504.75215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
@@ -3635,13 +2960,10 @@
         <v>2.786163424997468E-2</v>
       </c>
       <c r="C81" s="6">
-        <v>12780504682.01273</v>
-      </c>
-      <c r="D81" s="6">
-        <v>6047546128.9399996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12430522571.21629</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
@@ -3649,13 +2971,10 @@
         <v>8.590935883145967E-5</v>
       </c>
       <c r="C82" s="6">
-        <v>12781602646.9755</v>
-      </c>
-      <c r="D82" s="6">
-        <v>6044991482.2299995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12512427828.59763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
@@ -3663,13 +2982,10 @@
         <v>-2.113731679979813E-2</v>
       </c>
       <c r="C83" s="6">
-        <v>12511433862.617241</v>
-      </c>
-      <c r="D83" s="6">
-        <v>6489780168.1700001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12273540928.394211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
@@ -3677,13 +2993,10 @@
         <v>-3.7705949394082887E-2</v>
       </c>
       <c r="C84" s="6">
-        <v>12039678370.54598</v>
-      </c>
-      <c r="D84" s="6">
-        <v>6361287062.3299999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11818576960.65785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
@@ -3691,13 +3004,10 @@
         <v>-6.6778699719721946E-2</v>
       </c>
       <c r="C85" s="6">
-        <v>11235684303.917259</v>
-      </c>
-      <c r="D85" s="6">
-        <v>6278318762.6800003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11093178199.037251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
@@ -3705,13 +3015,10 @@
         <v>3.4247543596865881E-4</v>
       </c>
       <c r="C86" s="6">
-        <v>11239532249.797649</v>
-      </c>
-      <c r="D86" s="6">
-        <v>6361809245.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11111257201.110411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
@@ -3719,13 +3026,10 @@
         <v>-3.6280433792970079E-3</v>
       </c>
       <c r="C87" s="6">
-        <v>11198754739.23238</v>
-      </c>
-      <c r="D87" s="6">
-        <v>6425317655.8999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11088400361.435459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
@@ -3733,13 +3037,10 @@
         <v>2.2601824435816601E-2</v>
       </c>
       <c r="C88" s="6">
-        <v>11451867027.74828</v>
-      </c>
-      <c r="D88" s="6">
-        <v>6526279467.1499996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11336131942.87155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -3747,13 +3048,10 @@
         <v>-1.4784093500964881E-2</v>
       </c>
       <c r="C89" s="6">
-        <v>11282561554.84943</v>
-      </c>
-      <c r="D89" s="6">
-        <v>7337629420.2799997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11174965658.66802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
@@ -3761,13 +3059,10 @@
         <v>1.548108979446128E-2</v>
       </c>
       <c r="C90" s="6">
-        <v>11457227903.39159</v>
-      </c>
-      <c r="D90" s="6">
-        <v>7422733235.8900003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11318740649.806101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
@@ -3775,13 +3070,10 @@
         <v>2.2185383655758169E-2</v>
       </c>
       <c r="C91" s="6">
-        <v>11711410900.05979</v>
-      </c>
-      <c r="D91" s="6">
-        <v>7523682920.7700005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11589947438.759899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
@@ -3789,13 +3081,10 @@
         <v>8.071935475341796E-3</v>
       </c>
       <c r="C92" s="6">
-        <v>11805944653.17029</v>
-      </c>
-      <c r="D92" s="6">
-        <v>7549356808.1800003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11685026850.280001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
@@ -3803,13 +3092,10 @@
         <v>3.4929872086717491E-3</v>
       </c>
       <c r="C93" s="6">
-        <v>11847182666.830099</v>
-      </c>
-      <c r="D93" s="6">
-        <v>7623588366.4899998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11705199076.26907</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
@@ -3817,13 +3103,10 @@
         <v>1.7016242916889409E-2</v>
       </c>
       <c r="C94" s="6">
-        <v>12048777204.969641</v>
-      </c>
-      <c r="D94" s="6">
-        <v>7693916997.0799999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11952488120.530081</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
@@ -3831,13 +3114,10 @@
         <v>-1.179239107273555E-2</v>
       </c>
       <c r="C95" s="6">
-        <v>11906693312.220381</v>
-      </c>
-      <c r="D95" s="6">
-        <v>7744728806.7200003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11796072379.575809</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
@@ -3845,13 +3125,10 @@
         <v>8.138096440998277E-3</v>
       </c>
       <c r="C96" s="6">
-        <v>12003591130.68862</v>
-      </c>
-      <c r="D96" s="6">
-        <v>7797612927.1400003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11876042792.36307</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
@@ -3859,13 +3136,10 @@
         <v>6.244531626815597E-4</v>
       </c>
       <c r="C97" s="6">
-        <v>12011086811.133711</v>
-      </c>
-      <c r="D97" s="6">
-        <v>7890046689.6899996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11911865830.74161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
@@ -3873,13 +3147,10 @@
         <v>3.3003466027929473E-2</v>
       </c>
       <c r="C98" s="6">
-        <v>12407494306.663469</v>
-      </c>
-      <c r="D98" s="6">
-        <v>8628245002.9599991</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12294005001.300671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
@@ -3887,13 +3158,10 @@
         <v>-3.3697824212297833E-2</v>
       </c>
       <c r="C99" s="6">
-        <v>11989388744.60244</v>
-      </c>
-      <c r="D99" s="6">
-        <v>8830545061.3099995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11861897482.559151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
@@ -3901,13 +3169,10 @@
         <v>-4.1051584605526707E-2</v>
       </c>
       <c r="C100" s="6">
-        <v>11497205338.184839</v>
-      </c>
-      <c r="D100" s="6">
-        <v>8554843302.1199999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11409321090.094749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
@@ -3915,13 +3180,10 @@
         <v>9.1082987180364228E-3</v>
       </c>
       <c r="C101" s="6">
-        <v>11601925318.827629</v>
-      </c>
-      <c r="D101" s="6">
-        <v>8555117311.3000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11519953926.862749</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
@@ -3929,13 +3191,10 @@
         <v>-2.196074118630276E-2</v>
       </c>
       <c r="C102" s="6">
-        <v>11347138439.63805</v>
-      </c>
-      <c r="D102" s="6">
-        <v>8525561703.7799997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11282744069.24667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
@@ -3943,13 +3202,10 @@
         <v>1.037086263310427E-2</v>
       </c>
       <c r="C103" s="6">
-        <v>11464818053.674351</v>
-      </c>
-      <c r="D103" s="6">
-        <v>8572549061.8999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11379756710.959801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
@@ -3957,13 +3213,10 @@
         <v>-2.1099687177899559E-2</v>
       </c>
       <c r="C104" s="6">
-        <v>11222913979.19029</v>
-      </c>
-      <c r="D104" s="6">
-        <v>8535731069.8900003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11120655078.28187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
@@ -3971,13 +3224,10 @@
         <v>7.3670684038671386E-3</v>
       </c>
       <c r="C105" s="6">
-        <v>11305593954.165701</v>
-      </c>
-      <c r="D105" s="6">
-        <v>8637933457.6399994</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11156611747.03779</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
@@ -3985,13 +3235,10 @@
         <v>6.1216836911996966E-3</v>
       </c>
       <c r="C106" s="6">
-        <v>11374803224.294241</v>
-      </c>
-      <c r="D106" s="6">
-        <v>8696018228.4200001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11260211044.17716</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
@@ -3999,13 +3246,10 @@
         <v>-1.975099074223929E-2</v>
       </c>
       <c r="C107" s="6">
-        <v>11150139591.116409</v>
-      </c>
-      <c r="D107" s="6">
-        <v>8639086304.1599998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11014739639.860399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
@@ -4013,13 +3257,10 @@
         <v>-4.7142060901783973E-2</v>
       </c>
       <c r="C108" s="6">
-        <v>10624499031.44861</v>
-      </c>
-      <c r="D108" s="6">
-        <v>8244001106.4200001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10552042543.102551</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
@@ -4027,13 +3268,10 @@
         <v>3.8510456557960809E-4</v>
       </c>
       <c r="C109" s="6">
-        <v>10628590574.53261</v>
-      </c>
-      <c r="D109" s="6">
-        <v>8324970365.9499998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10530385064.63673</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
@@ -4041,13 +3279,10 @@
         <v>4.1501444964235253E-2</v>
       </c>
       <c r="C110" s="6">
-        <v>11069692441.308969</v>
-      </c>
-      <c r="D110" s="6">
-        <v>8177279951.5699997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10945158560.69698</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
@@ -4055,13 +3290,10 @@
         <v>2.8361366239124889E-2</v>
       </c>
       <c r="C111" s="6">
-        <v>11383644042.79141</v>
-      </c>
-      <c r="D111" s="6">
-        <v>8466374243.3400002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11153881552.16176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
@@ -4069,13 +3301,10 @@
         <v>-8.7607621278535941E-3</v>
       </c>
       <c r="C112" s="6">
-        <v>11283914645.184349</v>
-      </c>
-      <c r="D112" s="6">
-        <v>8538970109.8500004</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11107388486.97127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
@@ -4083,13 +3312,10 @@
         <v>5.3460698875700041E-2</v>
       </c>
       <c r="C113" s="6">
-        <v>11887160608.169649</v>
-      </c>
-      <c r="D113" s="6">
-        <v>8705342961.3999996</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11718881964.021469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
@@ -4097,13 +3323,10 @@
         <v>-1.501936049292907E-2</v>
       </c>
       <c r="C114" s="6">
-        <v>11708623057.758209</v>
-      </c>
-      <c r="D114" s="6">
-        <v>9126959379.2399998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11554106136.42952</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
@@ -4111,13 +3334,10 @@
         <v>4.2819747738113589E-2</v>
       </c>
       <c r="C115" s="6">
-        <v>12209983343.45208</v>
-      </c>
-      <c r="D115" s="6">
-        <v>9074029379.0200005</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12040912494.68705</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
@@ -4125,13 +3345,10 @@
         <v>3.494594639232651E-2</v>
       </c>
       <c r="C116" s="6">
-        <v>12636672766.823549</v>
-      </c>
-      <c r="D116" s="6">
-        <v>9361706609.4699993</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12411436516.660419</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
@@ -4139,13 +3356,10 @@
         <v>1.391160661467161E-2</v>
       </c>
       <c r="C117" s="6">
-        <v>12812469187.273939</v>
-      </c>
-      <c r="D117" s="6">
-        <v>9396108735.5499992</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12590154299.415291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
@@ -4153,13 +3367,10 @@
         <v>9.0339628309534792E-2</v>
       </c>
       <c r="C118" s="6">
-        <v>13969942891.379629</v>
-      </c>
-      <c r="D118" s="6">
-        <v>9608738306.5599995</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13709348252.524969</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
@@ -4167,13 +3378,10 @@
         <v>-2.6784016796342461E-2</v>
       </c>
       <c r="C119" s="6">
-        <v>13595771706.33297</v>
-      </c>
-      <c r="D119" s="6">
-        <v>9614794478.7800007</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13335347529.16181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
@@ -4181,13 +3389,10 @@
         <v>-3.4125762145065242E-4</v>
       </c>
       <c r="C120" s="6">
-        <v>13591132045.618679</v>
-      </c>
-      <c r="D120" s="6">
-        <v>9625407467.9099998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13328135902.152189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
@@ -4195,13 +3400,10 @@
         <v>4.0456073391559322E-4</v>
       </c>
       <c r="C121" s="6">
-        <v>13596630483.973801</v>
-      </c>
-      <c r="D121" s="6">
-        <v>9713037686.1700001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13343575117.90452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
@@ -4209,13 +3411,10 @@
         <v>-1.806195646684694E-2</v>
       </c>
       <c r="C122" s="6">
-        <v>13351048736.07646</v>
-      </c>
-      <c r="D122" s="6">
-        <v>9477691033.2600002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13030260074.621771</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
@@ -4223,13 +3422,10 @@
         <v>6.4160967094206045E-2</v>
       </c>
       <c r="C123" s="6">
-        <v>14207664934.705009</v>
-      </c>
-      <c r="D123" s="6">
-        <v>9555218261.0100002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13950334604.32744</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
@@ -4237,13 +3433,10 @@
         <v>3.2237832356871943E-2</v>
       </c>
       <c r="C124" s="6">
-        <v>14665689255.052641</v>
-      </c>
-      <c r="D124" s="6">
-        <v>9338936485.3999996</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14392607698.184071</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
@@ -4251,13 +3444,10 @@
         <v>-7.1800073241573226E-2</v>
       </c>
       <c r="C125" s="6">
-        <v>13612691692.401699</v>
-      </c>
-      <c r="D125" s="6">
-        <v>8664875030.0200005</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12660353017.34519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
@@ -4265,13 +3455,10 @@
         <v>6.9195943100095247E-2</v>
       </c>
       <c r="C126" s="6">
-        <v>14554634732.188271</v>
-      </c>
-      <c r="D126" s="6">
-        <v>9107006952.5200005</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13716339775.952841</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
@@ -4279,13 +3466,10 @@
         <v>4.4916792724412069E-3</v>
       </c>
       <c r="C127" s="6">
-        <v>14620009483.3328</v>
-      </c>
-      <c r="D127" s="6">
-        <v>9213245024.9799995</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14001547421.380131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -4293,10 +3477,7 @@
         <v>1.6250769598159739E-2</v>
       </c>
       <c r="C128" s="6">
-        <v>14857595888.969351</v>
-      </c>
-      <c r="D128" s="6">
-        <v>9308097696.1700001</v>
+        <v>14307996096.708679</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,10 +3488,7 @@
         <v>8.5673638277284914E-2</v>
       </c>
       <c r="C129" s="6">
-        <v>16130500184.83098</v>
-      </c>
-      <c r="D129" s="6">
-        <v>9606421868.5300007</v>
+        <v>15553516009.40794</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,10 +3499,7 @@
         <v>-7.0230782060296648E-2</v>
       </c>
       <c r="C130" s="6">
-        <v>14997642541.82654</v>
-      </c>
-      <c r="D130" s="6">
-        <v>9743289163.6800003</v>
+        <v>14588150374.739719</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,10 +3510,7 @@
         <v>1.589932912939851E-3</v>
       </c>
       <c r="C131" s="6">
-        <v>15021487787.320299</v>
-      </c>
-      <c r="D131" s="6">
-        <v>9894562298.5499992</v>
+        <v>14507031329.62509</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,10 +3521,7 @@
         <v>-2.654293767360227E-2</v>
       </c>
       <c r="C132" s="6">
-        <v>14622773373.216681</v>
-      </c>
-      <c r="D132" s="6">
-        <v>9700328704.6299992</v>
+        <v>14042518745.15052</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,10 +3532,7 @@
         <v>5.8781101976171479E-2</v>
       </c>
       <c r="C133" s="6">
-        <v>15482316106.04217</v>
-      </c>
-      <c r="D133" s="6">
-        <v>10308274207.780001</v>
+        <v>14843703573.188829</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4377,10 +3543,7 @@
         <v>-4.4699286710861994E-3</v>
       </c>
       <c r="C134" s="6">
-        <v>15413111257.38496</v>
-      </c>
-      <c r="D134" s="6">
-        <v>11053433125.610001</v>
+        <v>14903110116.495609</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4391,10 +3554,7 @@
         <v>-4.3688817151995567E-2</v>
       </c>
       <c r="C135" s="6">
-        <v>14739730657.9177</v>
-      </c>
-      <c r="D135" s="6">
-        <v>10900299506.57</v>
+        <v>14378746016.426029</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,10 +3565,7 @@
         <v>-5.1393438154863517E-2</v>
       </c>
       <c r="C136" s="6">
-        <v>13982205221.93066</v>
-      </c>
-      <c r="D136" s="6">
-        <v>10872197550.370001</v>
+        <v>13670088233.86833</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,10 +3576,7 @@
         <v>-4.4005451168564018E-2</v>
       </c>
       <c r="C137" s="6">
-        <v>13366911972.808149</v>
-      </c>
-      <c r="D137" s="6">
-        <v>10999754121.32</v>
+        <v>13079949022.367821</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,10 +3587,7 @@
         <v>2.690451376078529E-2</v>
       </c>
       <c r="C138" s="6">
-        <v>13726542239.919769</v>
-      </c>
-      <c r="D138" s="6">
-        <v>11290601383.860001</v>
+        <v>13440527208.422779</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,10 +3598,7 @@
         <v>2.6239538458092682E-3</v>
       </c>
       <c r="C139" s="6">
-        <v>13762560053.21987</v>
-      </c>
-      <c r="D139" s="6">
-        <v>11478701164.889999</v>
+        <v>13535421145.15155</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,10 +3609,7 @@
         <v>4.8920235933677558E-2</v>
       </c>
       <c r="C140" s="6">
-        <v>14435827738.074789</v>
-      </c>
-      <c r="D140" s="6">
-        <v>11665454270.74</v>
+        <v>14171666376.583031</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,10 +3620,7 @@
         <v>2.7283104524946641E-2</v>
       </c>
       <c r="C141" s="6">
-        <v>14829681935.156811</v>
-      </c>
-      <c r="D141" s="6">
-        <v>11826970568.32</v>
+        <v>14597829311.25312</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4489,10 +3631,7 @@
         <v>-9.863523287358178E-3</v>
       </c>
       <c r="C142" s="6">
-        <v>14683409022.04528</v>
-      </c>
-      <c r="D142" s="6">
-        <v>11980671064.48</v>
+        <v>14448164301.765261</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,11 +3642,9 @@
         <v>-2.475391265028393E-2</v>
       </c>
       <c r="C143" s="6">
-        <v>14319937197.705179</v>
-      </c>
-      <c r="D143" s="6">
-        <v>11508277149.59</v>
-      </c>
+        <v>13125789360.55118</v>
+      </c>
+      <c r="D143" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4518,43 +3655,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34693692-6C77-4BB4-A99D-61623299D4F5}">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
       <c r="C2" s="6">
-        <v>22825678131.721001</v>
-      </c>
-      <c r="D2" s="6">
-        <v>12670331040.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22421658371.823639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
@@ -4562,13 +3693,10 @@
         <v>1.226322524146406E-2</v>
       </c>
       <c r="C3" s="6">
-        <v>23105594563.939461</v>
-      </c>
-      <c r="D3" s="6">
-        <v>12454714514.059999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22760913521.09169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
@@ -4576,13 +3704,10 @@
         <v>-5.0695029160563454E-3</v>
       </c>
       <c r="C4" s="6">
-        <v>22988460684.920349</v>
-      </c>
-      <c r="D4" s="6">
-        <v>12582416484.82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22560522805.664669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
@@ -4590,13 +3715,10 @@
         <v>-8.0070156699167949E-3</v>
       </c>
       <c r="C5" s="6">
-        <v>22804391719.98893</v>
-      </c>
-      <c r="D5" s="6">
-        <v>13025662728.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22474723816.58112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
@@ -4604,13 +3726,10 @@
         <v>3.1285944661002318E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>23517848657.36832</v>
-      </c>
-      <c r="D6" s="6">
-        <v>13260440725.690001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23178626933.93977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
@@ -4618,13 +3737,10 @@
         <v>-3.633232891476323E-3</v>
       </c>
       <c r="C7" s="6">
-        <v>23432402836.0896</v>
-      </c>
-      <c r="D7" s="6">
-        <v>12652381383.559999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22850717556.569969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
@@ -4632,13 +3748,10 @@
         <v>4.3552241686985571E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>24452936507.713779</v>
-      </c>
-      <c r="D8" s="6">
-        <v>12475038374.799999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23814909194.741341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
@@ -4646,13 +3759,10 @@
         <v>1.1518374327995179E-2</v>
       </c>
       <c r="C9" s="6">
-        <v>24734594583.828331</v>
-      </c>
-      <c r="D9" s="6">
-        <v>12970168980.82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24218100781.168541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
@@ -4660,13 +3770,10 @@
         <v>5.1026762918444879E-2</v>
       </c>
       <c r="C10" s="6">
-        <v>25996720877.541191</v>
-      </c>
-      <c r="D10" s="6">
-        <v>12942973012.129999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25304181897.305431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
@@ -4674,13 +3781,10 @@
         <v>-1.156773507470665E-2</v>
       </c>
       <c r="C11" s="6">
-        <v>25695997697.61869</v>
-      </c>
-      <c r="D11" s="6">
-        <v>13480205460.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25095324740.460442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
@@ -4688,13 +3792,10 @@
         <v>-3.0179548475079199E-2</v>
       </c>
       <c r="C12" s="6">
-        <v>24920504089.487888</v>
-      </c>
-      <c r="D12" s="6">
-        <v>13443063041.030001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24409563581.684669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
@@ -4702,13 +3803,10 @@
         <v>-7.4884997912519902E-3</v>
       </c>
       <c r="C13" s="6">
-        <v>24733886899.815861</v>
-      </c>
-      <c r="D13" s="6">
-        <v>14814700195.870001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24168543086.9319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
@@ -4716,13 +3814,10 @@
         <v>-1.9654432376307041E-2</v>
       </c>
       <c r="C14" s="6">
-        <v>24247756392.34021</v>
-      </c>
-      <c r="D14" s="6">
-        <v>15090047197.559999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23879105856.787399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
@@ -4730,13 +3825,10 @@
         <v>-2.3754408456788671E-2</v>
       </c>
       <c r="C15" s="6">
-        <v>23671765282.83585</v>
-      </c>
-      <c r="D15" s="6">
-        <v>15034722562.559999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23302742234.740292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
@@ -4744,13 +3836,10 @@
         <v>1.3835982498691781E-2</v>
       </c>
       <c r="C16" s="6">
-        <v>23999287413.002312</v>
-      </c>
-      <c r="D16" s="6">
-        <v>15339223946.43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23697813115.51849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
@@ -4758,13 +3847,10 @@
         <v>-1.1800023054647E-2</v>
       </c>
       <c r="C17" s="6">
-        <v>23716095268.23378</v>
-      </c>
-      <c r="D17" s="6">
-        <v>15338075937.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23414675842.116219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
@@ -4772,13 +3858,10 @@
         <v>2.083922846418762E-2</v>
       </c>
       <c r="C18" s="6">
-        <v>24210320395.806938</v>
-      </c>
-      <c r="D18" s="6">
-        <v>15759188122.620001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23935716110.656509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
@@ -4786,13 +3869,10 @@
         <v>1.686683013055168E-2</v>
       </c>
       <c r="C19" s="6">
-        <v>24618671757.32925</v>
-      </c>
-      <c r="D19" s="6">
-        <v>15817399042.18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24288745754.192402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
@@ -4800,13 +3880,10 @@
         <v>-2.404911524322972E-2</v>
       </c>
       <c r="C20" s="6">
-        <v>24026614483.10199</v>
-      </c>
-      <c r="D20" s="6">
-        <v>15518354156.139999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23717696131.892029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
@@ -4814,13 +3891,10 @@
         <v>4.1100742256041427E-2</v>
       </c>
       <c r="C21" s="6">
-        <v>25014126172.25724</v>
-      </c>
-      <c r="D21" s="6">
-        <v>15643951036.32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24478458040.500278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
@@ -4828,13 +3902,10 @@
         <v>2.0588691431060239E-2</v>
       </c>
       <c r="C22" s="6">
-        <v>25529134297.435452</v>
-      </c>
-      <c r="D22" s="6">
-        <v>15501631744.309999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24819325770.51738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
@@ -4842,13 +3913,10 @@
         <v>5.2897541606619969E-2</v>
       </c>
       <c r="C23" s="6">
-        <v>26879562741.115028</v>
-      </c>
-      <c r="D23" s="6">
-        <v>15478669634.76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25698847839.745781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
@@ -4856,13 +3924,10 @@
         <v>6.1806771869843402E-4</v>
       </c>
       <c r="C24" s="6">
-        <v>26896176131.138039</v>
-      </c>
-      <c r="D24" s="6">
-        <v>15988684918.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25865460633.46801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
@@ -4870,13 +3935,10 @@
         <v>-2.2052773489866781E-4</v>
       </c>
       <c r="C25" s="6">
-        <v>26890244778.338402</v>
-      </c>
-      <c r="D25" s="6">
-        <v>15838131556.610001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25935669935.63636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
@@ -4884,13 +3946,10 @@
         <v>3.8878628160676783E-2</v>
       </c>
       <c r="C26" s="6">
-        <v>27935700606.224998</v>
-      </c>
-      <c r="D26" s="6">
-        <v>15979851739.540001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26927606750.33416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
@@ -4898,13 +3957,10 @@
         <v>2.1699540927588861E-3</v>
       </c>
       <c r="C27" s="6">
-        <v>27996319794.089569</v>
-      </c>
-      <c r="D27" s="6">
-        <v>16380190274.370001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27029981033.195202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
@@ -4912,13 +3968,10 @@
         <v>9.856157799010834E-4</v>
       </c>
       <c r="C28" s="6">
-        <v>28023913408.65778</v>
-      </c>
-      <c r="D28" s="6">
-        <v>16632293380.49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27140559773.97002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
@@ -4926,13 +3979,10 @@
         <v>-3.0109590916585941E-2</v>
       </c>
       <c r="C29" s="6">
-        <v>27180124840.041271</v>
-      </c>
-      <c r="D29" s="6">
-        <v>16525290668.17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26466342985.584122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
@@ -4940,13 +3990,10 @@
         <v>2.1262387241745229E-2</v>
       </c>
       <c r="C30" s="6">
-        <v>27758039179.669201</v>
-      </c>
-      <c r="D30" s="6">
-        <v>16649048720.639999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26998371355.195889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
@@ -4954,13 +4001,10 @@
         <v>2.6705191967254519E-2</v>
       </c>
       <c r="C31" s="6">
-        <v>28499322944.59684</v>
-      </c>
-      <c r="D31" s="6">
-        <v>16487003754.48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27629032639.800201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
@@ -4968,13 +4012,10 @@
         <v>2.5446984822804719E-2</v>
       </c>
       <c r="C32" s="6">
-        <v>29224544783.028198</v>
-      </c>
-      <c r="D32" s="6">
-        <v>16666683230.139999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28498805655.902229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
@@ -4982,13 +4023,10 @@
         <v>5.3791459321416157E-2</v>
       </c>
       <c r="C33" s="6">
-        <v>30796575694.911369</v>
-      </c>
-      <c r="D33" s="6">
-        <v>16994661825.91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29965860254.522011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
@@ -4996,13 +4034,10 @@
         <v>-9.9293493405772093E-3</v>
       </c>
       <c r="C34" s="6">
-        <v>30490785736.34306</v>
-      </c>
-      <c r="D34" s="6">
-        <v>17060740670.370001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29791195610.194931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
@@ -5010,13 +4045,10 @@
         <v>-1.3946552720567881E-2</v>
       </c>
       <c r="C35" s="6">
-        <v>30065544385.579609</v>
-      </c>
-      <c r="D35" s="6">
-        <v>17161797379.67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29471874050.222439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
@@ -5024,13 +4056,10 @@
         <v>1.6406732598319259E-2</v>
       </c>
       <c r="C36" s="6">
-        <v>30558821732.73671</v>
-      </c>
-      <c r="D36" s="6">
-        <v>17142269583.370001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29985317160.866009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
@@ -5038,13 +4067,10 @@
         <v>-1.007207573342972E-2</v>
       </c>
       <c r="C37" s="6">
-        <v>30251030965.920212</v>
-      </c>
-      <c r="D37" s="6">
-        <v>17226232669.720001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29699667577.799938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
@@ -5052,13 +4078,10 @@
         <v>-1.7860083867459631E-2</v>
       </c>
       <c r="C38" s="6">
-        <v>29710745015.791759</v>
-      </c>
-      <c r="D38" s="6">
-        <v>17291185714.259998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29208656491.626049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
@@ -5066,13 +4089,10 @@
         <v>-3.6104228607026563E-2</v>
       </c>
       <c r="C39" s="6">
-        <v>28638061485.65654</v>
-      </c>
-      <c r="D39" s="6">
-        <v>16688192891.540001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28182309804.006191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
@@ -5080,13 +4100,10 @@
         <v>7.1857435593773999E-3</v>
       </c>
       <c r="C40" s="6">
-        <v>28843847251.530151</v>
-      </c>
-      <c r="D40" s="6">
-        <v>16760318931.09</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28413132455.33345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
@@ -5094,13 +4111,10 @@
         <v>-7.1106610194547892E-3</v>
       </c>
       <c r="C41" s="6">
-        <v>28638748431.227589</v>
-      </c>
-      <c r="D41" s="6">
-        <v>16965972358.16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28182895451.88699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
@@ -5108,13 +4122,10 @@
         <v>3.3551961922721807E-2</v>
       </c>
       <c r="C42" s="6">
-        <v>29599634628.106541</v>
-      </c>
-      <c r="D42" s="6">
-        <v>17344551325.700001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29126063981.664619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
@@ -5122,13 +4133,10 @@
         <v>-5.796416862510434E-2</v>
       </c>
       <c r="C43" s="6">
-        <v>27883916415.281502</v>
-      </c>
-      <c r="D43" s="6">
-        <v>17009919681.780001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27479629484.901531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
@@ -5136,13 +4144,10 @@
         <v>-4.1611497858580648E-2</v>
       </c>
       <c r="C44" s="6">
-        <v>26723624887.078171</v>
-      </c>
-      <c r="D44" s="6">
-        <v>16655048859.379999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26305030617.295959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
@@ -5150,13 +4155,10 @@
         <v>-1.6925001001298901E-3</v>
       </c>
       <c r="C45" s="6">
-        <v>26678395149.28096</v>
-      </c>
-      <c r="D45" s="6">
-        <v>16844754449.469999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26328878010.60976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
@@ -5164,13 +4166,10 @@
         <v>-7.9624316083356517E-3</v>
       </c>
       <c r="C46" s="6">
-        <v>26465970252.48465</v>
-      </c>
-      <c r="D46" s="6">
-        <v>16611704230.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26179038678.61454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
@@ -5178,13 +4177,10 @@
         <v>-2.6623518716700771E-3</v>
       </c>
       <c r="C47" s="6">
-        <v>26395508527.04739</v>
-      </c>
-      <c r="D47" s="6">
-        <v>16745140477.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26117593162.48737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
@@ -5192,13 +4188,10 @@
         <v>1.555439596134844E-2</v>
       </c>
       <c r="C48" s="6">
-        <v>26806074718.278229</v>
-      </c>
-      <c r="D48" s="6">
-        <v>17068600956.34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26573033827.195271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
@@ -5206,13 +4199,10 @@
         <v>-1.5009898239294659E-2</v>
       </c>
       <c r="C49" s="6">
-        <v>26403718264.561951</v>
-      </c>
-      <c r="D49" s="6">
-        <v>17048811459.129999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26190551776.761101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
@@ -5220,13 +4210,10 @@
         <v>-6.2067748225759223E-3</v>
       </c>
       <c r="C50" s="6">
-        <v>26239836330.815071</v>
-      </c>
-      <c r="D50" s="6">
-        <v>17124920453.700001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26012033625.85915</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
@@ -5234,13 +4221,10 @@
         <v>3.4494133482760647E-2</v>
       </c>
       <c r="C51" s="6">
-        <v>27144956747.776001</v>
-      </c>
-      <c r="D51" s="6">
-        <v>17108427415.48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26956334851.297661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
@@ -5248,13 +4232,10 @@
         <v>1.190133643109648E-2</v>
       </c>
       <c r="C52" s="6">
-        <v>27468018010.43885</v>
-      </c>
-      <c r="D52" s="6">
-        <v>17452044700.369999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27287318203.34959</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
@@ -5262,13 +4243,10 @@
         <v>3.3694556751351361E-3</v>
       </c>
       <c r="C53" s="6">
-        <v>27560570279.608829</v>
-      </c>
-      <c r="D53" s="6">
-        <v>17534458681.869999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27388124091.788212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
@@ -5276,13 +4254,10 @@
         <v>1.3949054534148519E-2</v>
       </c>
       <c r="C54" s="6">
-        <v>27945014177.431332</v>
-      </c>
-      <c r="D54" s="6">
-        <v>17527323843.169998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27760246761.886421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
@@ -5290,13 +4265,10 @@
         <v>1.756788635155582E-2</v>
       </c>
       <c r="C55" s="6">
-        <v>28435949010.59306</v>
-      </c>
-      <c r="D55" s="6">
-        <v>17802031711.889999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28264306228.90979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
@@ -5304,13 +4276,10 @@
         <v>-3.2992171166301709E-3</v>
       </c>
       <c r="C56" s="6">
-        <v>28342132640.88969</v>
-      </c>
-      <c r="D56" s="6">
-        <v>17885536456.360001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28212253351.116959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
@@ -5318,13 +4287,10 @@
         <v>-6.8462411089231789E-4</v>
       </c>
       <c r="C57" s="6">
-        <v>28322728933.529621</v>
-      </c>
-      <c r="D57" s="6">
-        <v>17771447283.099998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28171461813.171452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
@@ -5332,13 +4298,10 @@
         <v>2.9958251786476039E-2</v>
       </c>
       <c r="C58" s="6">
-        <v>29171228378.20042</v>
-      </c>
-      <c r="D58" s="6">
-        <v>18152061725.919998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29000000448.221241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
@@ -5346,13 +4309,10 @@
         <v>-2.850852978289287E-2</v>
       </c>
       <c r="C59" s="6">
-        <v>28339599545.176922</v>
-      </c>
-      <c r="D59" s="6">
-        <v>17760389482.459999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28176078282.770481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
@@ -5360,13 +4320,10 @@
         <v>1.6691287843810351E-2</v>
       </c>
       <c r="C60" s="6">
-        <v>28812623958.563789</v>
-      </c>
-      <c r="D60" s="6">
-        <v>17913492320.950001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28561586579.45026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
@@ -5374,13 +4331,10 @@
         <v>1.5012166281367371E-2</v>
       </c>
       <c r="C61" s="6">
-        <v>29245163860.432251</v>
-      </c>
-      <c r="D61" s="6">
-        <v>18161633085.610001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29016736553.308029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
@@ -5388,13 +4342,10 @@
         <v>1.489509239417308E-2</v>
       </c>
       <c r="C62" s="6">
-        <v>29680773278.216122</v>
-      </c>
-      <c r="D62" s="6">
-        <v>18347484059.09</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29386524075.357681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
@@ -5402,13 +4353,10 @@
         <v>6.4412166674886029E-2</v>
       </c>
       <c r="C63" s="6">
-        <v>31592576193.652081</v>
-      </c>
-      <c r="D63" s="6">
-        <v>18722609505.799999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31179296090.275059</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
@@ -5416,13 +4364,10 @@
         <v>-3.5594212427700112E-2</v>
       </c>
       <c r="C64" s="6">
-        <v>30468063325.476929</v>
-      </c>
-      <c r="D64" s="6">
-        <v>18813632546.84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30090283167.320889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
@@ -5430,13 +4375,10 @@
         <v>7.9538540544032976E-4</v>
       </c>
       <c r="C65" s="6">
-        <v>30492297178.37804</v>
-      </c>
-      <c r="D65" s="6">
-        <v>18773915353.099998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30150607153.522079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
@@ -5444,13 +4386,10 @@
         <v>-2.4324922548064839E-2</v>
       </c>
       <c r="C66" s="6">
-        <v>29750574411.20142</v>
-      </c>
-      <c r="D66" s="6">
-        <v>18729047234.330002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29437385877.819038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
@@ -5458,13 +4397,10 @@
         <v>-2.386286231225521E-2</v>
       </c>
       <c r="C67" s="6">
-        <v>29040640550.316422</v>
-      </c>
-      <c r="D67" s="6">
-        <v>18647811742.490002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28840874727.332851</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
@@ -5472,13 +4408,10 @@
         <v>-3.8114898953421683E-2</v>
       </c>
       <c r="C68" s="6">
-        <v>27933759470.198471</v>
-      </c>
-      <c r="D68" s="6">
-        <v>18237344817.240002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27750453374.882259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
@@ -5486,13 +4419,10 @@
         <v>1.7241719571827071E-2</v>
       </c>
       <c r="C69" s="6">
-        <v>28415385517.570499</v>
-      </c>
-      <c r="D69" s="6">
-        <v>18376949304.200001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28193501575.58979</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
@@ -5500,13 +4430,10 @@
         <v>-1.0896220214167029E-2</v>
       </c>
       <c r="C70" s="6">
-        <v>28105765219.500599</v>
-      </c>
-      <c r="D70" s="6">
-        <v>17823822010.27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27850287583.329071</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
@@ -5514,13 +4441,10 @@
         <v>1.070085143157451E-2</v>
       </c>
       <c r="C71" s="6">
-        <v>28406520837.485199</v>
-      </c>
-      <c r="D71" s="6">
-        <v>17611674082.799999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27982854608.65807</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
@@ -5528,13 +4452,10 @@
         <v>2.256845887162573E-3</v>
       </c>
       <c r="C72" s="6">
-        <v>28470629977.205872</v>
-      </c>
-      <c r="D72" s="6">
-        <v>18048333376.560001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28120768309.849319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
@@ -5542,13 +4463,10 @@
         <v>-1.7272926770005581E-3</v>
       </c>
       <c r="C73" s="6">
-        <v>28421452866.536652</v>
-      </c>
-      <c r="D73" s="6">
-        <v>17923305130.990002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28109695196.590542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
@@ -5556,13 +4474,10 @@
         <v>-4.3538825865404576E-3</v>
       </c>
       <c r="C74" s="6">
-        <v>28297709197.81686</v>
-      </c>
-      <c r="D74" s="6">
-        <v>17720678489.540001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27922509171.277081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
@@ -5570,13 +4485,10 @@
         <v>8.6913161682631301E-3</v>
       </c>
       <c r="C75" s="6">
-        <v>28543653535.292648</v>
-      </c>
-      <c r="D75" s="6">
-        <v>17401580107.799999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27997461394.184368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
@@ -5584,13 +4496,10 @@
         <v>1.8976238135466339E-2</v>
       </c>
       <c r="C76" s="6">
-        <v>29085304702.034611</v>
-      </c>
-      <c r="D76" s="6">
-        <v>17468918255.400002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28495600758.27092</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
@@ -5598,13 +4507,10 @@
         <v>3.2762009306234408E-2</v>
       </c>
       <c r="C77" s="6">
-        <v>30038197725.35733</v>
-      </c>
-      <c r="D77" s="6">
-        <v>18015825215.720001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29397699108.047119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
@@ -5612,13 +4518,10 @@
         <v>1.2507291660945E-2</v>
       </c>
       <c r="C78" s="6">
-        <v>30413894225.277512</v>
-      </c>
-      <c r="D78" s="6">
-        <v>18123427852.610001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29924220958.23008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
@@ -5626,13 +4529,10 @@
         <v>-4.7943371875304166E-3</v>
       </c>
       <c r="C79" s="6">
-        <v>30268079761.17564</v>
-      </c>
-      <c r="D79" s="6">
-        <v>18098420744.150002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29807959637.618141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
@@ -5640,13 +4540,10 @@
         <v>3.7935064452551133E-2</v>
       </c>
       <c r="C80" s="6">
-        <v>31416301317.770802</v>
-      </c>
-      <c r="D80" s="6">
-        <v>18221304108.220001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30783147622.044491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
@@ -5654,13 +4551,10 @@
         <v>2.0270552691773251E-2</v>
       </c>
       <c r="C81" s="6">
-        <v>32053127109.01329</v>
-      </c>
-      <c r="D81" s="6">
-        <v>18547786478.41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31322882659.17572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
@@ -5668,13 +4562,10 @@
         <v>-2.35172536680528E-3</v>
       </c>
       <c r="C82" s="6">
-        <v>31977746956.90559</v>
-      </c>
-      <c r="D82" s="6">
-        <v>18508832479.779999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31402696152.87606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
@@ -5682,13 +4573,10 @@
         <v>-1.525474100084678E-2</v>
       </c>
       <c r="C83" s="6">
-        <v>31489934709.28738</v>
-      </c>
-      <c r="D83" s="6">
-        <v>18773993442.110001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30959517690.373371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
@@ -5696,13 +4584,10 @@
         <v>-2.8075793198350522E-2</v>
       </c>
       <c r="C84" s="6">
-        <v>30605829814.559872</v>
-      </c>
-      <c r="D84" s="6">
-        <v>18430042970.950001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30119602734.31086</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
@@ -5710,13 +4595,10 @@
         <v>-5.3316395044851313E-2</v>
       </c>
       <c r="C85" s="6">
-        <v>28974037301.49131</v>
-      </c>
-      <c r="D85" s="6">
-        <v>18157757460.240002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28635232683.61776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
@@ -5724,13 +4606,10 @@
         <v>-2.320457203288329E-3</v>
       </c>
       <c r="C86" s="6">
-        <v>28906804287.92672</v>
-      </c>
-      <c r="D86" s="6">
-        <v>18519115493.09</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28603056790.0499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
@@ -5738,13 +4617,10 @@
         <v>-2.7152635267374552E-3</v>
       </c>
       <c r="C87" s="6">
-        <v>28828314696.56918</v>
-      </c>
-      <c r="D87" s="6">
-        <v>18672728045.689999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28560478577.183338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
@@ -5752,13 +4628,10 @@
         <v>1.720059972318766E-2</v>
       </c>
       <c r="C88" s="6">
-        <v>29324178998.358952</v>
-      </c>
-      <c r="D88" s="6">
-        <v>18935552854.389999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29027504121.26841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -5766,13 +4639,10 @@
         <v>-1.122875425445136E-2</v>
       </c>
       <c r="C89" s="6">
-        <v>28994904998.67284</v>
-      </c>
-      <c r="D89" s="6">
-        <v>19799498475.639999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28712883784.264801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
@@ -5780,13 +4650,10 @@
         <v>1.295002009966106E-2</v>
       </c>
       <c r="C90" s="6">
-        <v>29370389601.193409</v>
-      </c>
-      <c r="D90" s="6">
-        <v>20002234967.919998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29025747925.465981</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
@@ -5794,13 +4661,10 @@
         <v>1.6181789128834941E-2</v>
       </c>
       <c r="C91" s="6">
-        <v>29845655052.35165</v>
-      </c>
-      <c r="D91" s="6">
-        <v>20236725707.75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29538595573.390961</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
@@ -5808,13 +4672,10 @@
         <v>3.5182164914839831E-3</v>
       </c>
       <c r="C92" s="6">
-        <v>29950658528.155979</v>
-      </c>
-      <c r="D92" s="6">
-        <v>20274704112.169998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29652430256.686279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
@@ -5822,13 +4683,10 @@
         <v>3.5076665280346919E-3</v>
       </c>
       <c r="C93" s="6">
-        <v>30055715450.567791</v>
-      </c>
-      <c r="D93" s="6">
-        <v>20438444305.610001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29724555308.76218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
@@ -5836,13 +4694,10 @@
         <v>1.328569228621701E-2</v>
       </c>
       <c r="C94" s="6">
-        <v>30455026437.48613</v>
-      </c>
-      <c r="D94" s="6">
-        <v>20590369678.540001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30205088165.23848</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
@@ -5850,13 +4705,10 @@
         <v>-1.045339298818815E-2</v>
       </c>
       <c r="C95" s="6">
-        <v>30136668077.66943</v>
-      </c>
-      <c r="D95" s="6">
-        <v>20690747320.220001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29854663961.571301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
@@ -5864,13 +4716,10 @@
         <v>5.1768662274360722E-3</v>
       </c>
       <c r="C96" s="6">
-        <v>30292681576.848171</v>
-      </c>
-      <c r="D96" s="6">
-        <v>20816031800.59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29972444706.627609</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
@@ -5878,13 +4727,10 @@
         <v>-1.8640196433770131E-3</v>
       </c>
       <c r="C97" s="6">
-        <v>30236215423.33836</v>
-      </c>
-      <c r="D97" s="6">
-        <v>21026669979.09</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29993296026.833778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
@@ -5892,13 +4738,10 @@
         <v>2.2408187816782998E-2</v>
       </c>
       <c r="C98" s="6">
-        <v>30913754217.413231</v>
-      </c>
-      <c r="D98" s="6">
-        <v>24225492187.240002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30627036680.01413</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
@@ -5906,13 +4749,10 @@
         <v>-2.7761107920642011E-2</v>
       </c>
       <c r="C99" s="6">
-        <v>30055554150.351429</v>
-      </c>
-      <c r="D99" s="6">
-        <v>24550452831.880001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29757029936.661751</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
@@ -5920,13 +4760,10 @@
         <v>-3.1391616175412529E-2</v>
       </c>
       <c r="C100" s="6">
-        <v>29112061730.524269</v>
-      </c>
-      <c r="D100" s="6">
-        <v>23751543939.110001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28898544089.901218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
@@ -5934,13 +4771,10 @@
         <v>5.833960520438275E-3</v>
       </c>
       <c r="C101" s="6">
-        <v>29281900349.328701</v>
-      </c>
-      <c r="D101" s="6">
-        <v>23895593642.490002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29082866972.786739</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
@@ -5948,13 +4782,10 @@
         <v>-1.717753573720748E-2</v>
       </c>
       <c r="C102" s="6">
-        <v>28778909459.62476</v>
-      </c>
-      <c r="D102" s="6">
-        <v>23668065334.799999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28618518632.30632</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
@@ -5962,13 +4793,10 @@
         <v>8.1119571122154621E-3</v>
       </c>
       <c r="C103" s="6">
-        <v>29012362738.897572</v>
-      </c>
-      <c r="D103" s="6">
-        <v>23850014619.049999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28794712139.021229</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
@@ -5976,13 +4804,10 @@
         <v>-1.689761923282895E-2</v>
       </c>
       <c r="C104" s="6">
-        <v>28522122880.29097</v>
-      </c>
-      <c r="D104" s="6">
-        <v>23743724505.990002</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28279971902.49654</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
@@ -5990,13 +4815,10 @@
         <v>4.8447201400323436E-3</v>
       </c>
       <c r="C105" s="6">
-        <v>28660304583.445591</v>
-      </c>
-      <c r="D105" s="6">
-        <v>23810476668.130001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28313761980.685749</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
@@ -6004,13 +4826,10 @@
         <v>5.6685396483084896E-3</v>
       </c>
       <c r="C106" s="6">
-        <v>28822766656.309441</v>
-      </c>
-      <c r="D106" s="6">
-        <v>23982305364.470001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28544950854.137409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
@@ -6018,13 +4837,10 @@
         <v>-1.590968278931881E-2</v>
       </c>
       <c r="C107" s="6">
-        <v>28364205581.69701</v>
-      </c>
-      <c r="D107" s="6">
-        <v>23633877037.77</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28048682550.696972</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
@@ -6032,13 +4848,10 @@
         <v>-3.4020704689331049E-2</v>
       </c>
       <c r="C108" s="6">
-        <v>27399235319.854622</v>
-      </c>
-      <c r="D108" s="6">
-        <v>22616086896.59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27213801027.354099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
@@ -6046,13 +4859,10 @@
         <v>5.8509970590270299E-4</v>
       </c>
       <c r="C109" s="6">
-        <v>27415266604.382229</v>
-      </c>
-      <c r="D109" s="6">
-        <v>22855316166.619999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27194485473.369942</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
@@ -6060,13 +4870,10 @@
         <v>3.1094800809078778E-2</v>
       </c>
       <c r="C110" s="6">
-        <v>28267738858.57328</v>
-      </c>
-      <c r="D110" s="6">
-        <v>22914691512.650002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27984452504.489052</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
@@ -6074,13 +4881,10 @@
         <v>2.4232828596261861E-2</v>
       </c>
       <c r="C111" s="6">
-        <v>28952746129.136978</v>
-      </c>
-      <c r="D111" s="6">
-        <v>23486649000.34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28461493752.309292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
@@ -6088,13 +4892,10 @@
         <v>-6.5483585793167931E-3</v>
       </c>
       <c r="C112" s="6">
-        <v>28763153165.62746</v>
-      </c>
-      <c r="D112" s="6">
-        <v>23478741957.66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28368449515.493351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
@@ -6102,13 +4903,10 @@
         <v>4.1648951213802743E-2</v>
       </c>
       <c r="C113" s="6">
-        <v>29961108328.57782</v>
-      </c>
-      <c r="D113" s="6">
-        <v>24171159309.130001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29574949829.07457</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
@@ -6116,13 +4914,10 @@
         <v>-1.103577771427589E-2</v>
       </c>
       <c r="C114" s="6">
-        <v>29630464196.990292</v>
-      </c>
-      <c r="D114" s="6">
-        <v>24607805892.509998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29268260478.65414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
@@ -6130,13 +4925,10 @@
         <v>3.2579964813437057E-2</v>
       </c>
       <c r="C115" s="6">
-        <v>30595823677.93404</v>
-      </c>
-      <c r="D115" s="6">
-        <v>25031219112.639999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30231913716.262291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
@@ -6144,13 +4936,10 @@
         <v>2.761498273977581E-2</v>
       </c>
       <c r="C116" s="6">
-        <v>31440726820.709412</v>
-      </c>
-      <c r="D116" s="6">
-        <v>25624099438.360001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30949202553.49609</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
@@ -6158,13 +4947,10 @@
         <v>1.0045488723930299E-2</v>
       </c>
       <c r="C117" s="6">
-        <v>31756564287.459019</v>
-      </c>
-      <c r="D117" s="6">
-        <v>25654690308.73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31276404354.471729</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
@@ -6172,13 +4958,10 @@
         <v>6.5621494749810383E-2</v>
       </c>
       <c r="C118" s="6">
-        <v>33840477504.120529</v>
-      </c>
-      <c r="D118" s="6">
-        <v>27075142517.599998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33285555441.34491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
@@ -6186,13 +4969,10 @@
         <v>-2.0359106986479469E-2</v>
       </c>
       <c r="C119" s="6">
-        <v>33151515602.140591</v>
-      </c>
-      <c r="D119" s="6">
-        <v>26732490993.099998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32590723236.058979</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
@@ -6200,13 +4980,10 @@
         <v>8.6145007735916046E-4</v>
       </c>
       <c r="C120" s="6">
-        <v>33180073977.820629</v>
-      </c>
-      <c r="D120" s="6">
-        <v>26631956752.709999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32612714808.24538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
@@ -6214,13 +4991,10 @@
         <v>-1.6962891828367079E-3</v>
       </c>
       <c r="C121" s="6">
-        <v>33123790977.24633</v>
-      </c>
-      <c r="D121" s="6">
-        <v>26718171624.689999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32587506343.31876</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
@@ -6228,13 +5002,10 @@
         <v>-1.27774475866429E-2</v>
       </c>
       <c r="C122" s="6">
-        <v>32700553474.163651</v>
-      </c>
-      <c r="D122" s="6">
-        <v>25905410180.560001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32055234172.013279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
@@ -6242,13 +5013,10 @@
         <v>4.8195188899743391E-2</v>
       </c>
       <c r="C123" s="6">
-        <v>34276562825.977119</v>
-      </c>
-      <c r="D123" s="6">
-        <v>26801714204.060001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33747926706.471062</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
@@ -6256,13 +5024,10 @@
         <v>2.5073234355458052E-2</v>
       </c>
       <c r="C124" s="6">
-        <v>35135987118.612427</v>
-      </c>
-      <c r="D124" s="6">
-        <v>27210513709.580002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34589504121.444328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
@@ -6270,13 +5035,10 @@
         <v>-5.9340660872637008E-2</v>
       </c>
       <c r="C125" s="6">
-        <v>33050994422.581501</v>
-      </c>
-      <c r="D125" s="6">
-        <v>26774758277.919998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31213806804.854401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
@@ -6284,13 +5046,10 @@
         <v>5.9749882463406179E-2</v>
       </c>
       <c r="C126" s="6">
-        <v>35025787454.62944</v>
-      </c>
-      <c r="D126" s="6">
-        <v>27673823035.060001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33375553941.912891</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
@@ -6298,13 +5057,10 @@
         <v>9.0404948207953861E-3</v>
       </c>
       <c r="C127" s="6">
-        <v>35342437904.707298</v>
-      </c>
-      <c r="D127" s="6">
-        <v>27458625451.310001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34113597901.676849</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -6312,10 +5068,7 @@
         <v>1.1805681342662581E-2</v>
       </c>
       <c r="C128" s="6">
-        <v>35759679464.483109</v>
-      </c>
-      <c r="D128" s="6">
-        <v>27604176824.200001</v>
+        <v>34668100795.440933</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,10 +5079,7 @@
         <v>6.1518712137749842E-2</v>
       </c>
       <c r="C129" s="6">
-        <v>37959568891.596848</v>
-      </c>
-      <c r="D129" s="6">
-        <v>28739709723.02</v>
+        <v>36858334923.194847</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -6340,10 +5090,7 @@
         <v>-4.9311563823980047E-2</v>
       </c>
       <c r="C130" s="6">
-        <v>36087723187.468102</v>
-      </c>
-      <c r="D130" s="6">
-        <v>28157559771.860001</v>
+        <v>35219728820.594093</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,10 +5101,7 @@
         <v>1.911382203823031E-4</v>
       </c>
       <c r="C131" s="6">
-        <v>36094620930.6558</v>
-      </c>
-      <c r="D131" s="6">
-        <v>27927113005.669998</v>
+        <v>35078764613.537064</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,10 +5112,7 @@
         <v>-1.903422887921857E-2</v>
       </c>
       <c r="C132" s="6">
-        <v>35407587654.553062</v>
-      </c>
-      <c r="D132" s="6">
-        <v>27087051809.869999</v>
+        <v>34298694862.84465</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,10 +5123,7 @@
         <v>3.9616037401657422E-2</v>
       </c>
       <c r="C133" s="6">
-        <v>36810295971.378304</v>
-      </c>
-      <c r="D133" s="6">
-        <v>28190375144.73</v>
+        <v>35639376897.855362</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,10 +5134,7 @@
         <v>-3.3382662735091939E-3</v>
       </c>
       <c r="C134" s="6">
-        <v>36687413401.81916</v>
-      </c>
-      <c r="D134" s="6">
-        <v>28978673408.57</v>
+        <v>35699155370.672997</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -6410,10 +5145,7 @@
         <v>-3.1871332473363712E-2</v>
       </c>
       <c r="C135" s="6">
-        <v>35518136651.702042</v>
-      </c>
-      <c r="D135" s="6">
-        <v>28129381368.68</v>
+        <v>34799198891.61422</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -6424,10 +5156,7 @@
         <v>-4.0043758910325078E-2</v>
       </c>
       <c r="C136" s="6">
-        <v>34095856950.677299</v>
-      </c>
-      <c r="D136" s="6">
-        <v>27127339708.720001</v>
+        <v>33459673396.349758</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,10 +5167,7 @@
         <v>-3.5391857994606868E-2</v>
       </c>
       <c r="C137" s="6">
-        <v>32889141223.274502</v>
-      </c>
-      <c r="D137" s="6">
-        <v>26762917954.490002</v>
+        <v>32284683702.884232</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,11 +5178,9 @@
         <v>2.0467432642989E-2</v>
       </c>
       <c r="C138" s="6">
-        <v>33562297505.947632</v>
-      </c>
-      <c r="D138" s="6">
-        <v>27451228205.639999</v>
-      </c>
+        <v>32962646934.908932</v>
+      </c>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
@@ -6466,11 +5190,9 @@
         <v>2.867491034941549E-3</v>
       </c>
       <c r="C139" s="6">
-        <v>33658537093.15797</v>
-      </c>
-      <c r="D139" s="6">
-        <v>27744608720.27</v>
-      </c>
+        <v>33154636066.715698</v>
+      </c>
+      <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -6480,11 +5202,9 @@
         <v>3.371004409833378E-2</v>
       </c>
       <c r="C140" s="6">
-        <v>34793167862.853729</v>
-      </c>
-      <c r="D140" s="6">
-        <v>28450323789.220001</v>
-      </c>
+        <v>34224586641.665649</v>
+      </c>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -6494,10 +5214,7 @@
         <v>2.11723067637033E-2</v>
       </c>
       <c r="C141" s="6">
-        <v>35529819486.12709</v>
-      </c>
-      <c r="D141" s="6">
-        <v>29059023657.560001</v>
+        <v>35026178140.338318</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -6508,10 +5225,7 @@
         <v>-8.0140958114476302E-3</v>
       </c>
       <c r="C142" s="6">
-        <v>35245080108.60183</v>
-      </c>
-      <c r="D142" s="6">
-        <v>29181824781.040001</v>
+        <v>34726623125.21904</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,11 +5236,9 @@
         <v>-1.927172401486121E-2</v>
       </c>
       <c r="C143" s="6">
-        <v>34565846651.86718</v>
-      </c>
-      <c r="D143" s="6">
-        <v>28189152287.09</v>
-      </c>
+        <v>32781663900.91605</v>
+      </c>
+      <c r="D143" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
